--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_19_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_19_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1479229.960728362</v>
+        <v>1478512.724112882</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4950248.695730087</v>
+        <v>4950248.695730072</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9590205.98362585</v>
+        <v>9590205.983625852</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.1078504188221</v>
+        <v>145.4062475704638</v>
       </c>
       <c r="C11" t="n">
-        <v>181.4739049222166</v>
+        <v>229.1191673765039</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>241.8426089909374</v>
       </c>
       <c r="F11" t="n">
-        <v>261.0144250789145</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>262.3409051157628</v>
+        <v>262.3409051157629</v>
       </c>
       <c r="H11" t="n">
-        <v>174.2835417775414</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.53425353909796</v>
+        <v>22.53425353909799</v>
       </c>
       <c r="T11" t="n">
-        <v>70.46388924261851</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>103.2926861902832</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>209.9143271369582</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>240.6111831659036</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>157.8252483534483</v>
+        <v>8.829994649431484</v>
       </c>
       <c r="C12" t="n">
-        <v>11.09138232743803</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>127.1165548494722</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>56.52047122575469</v>
+        <v>22.85969518354932</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>39.02901935393511</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T12" t="n">
-        <v>36.49439094626075</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U12" t="n">
-        <v>204.131327860247</v>
+        <v>67.29323155474323</v>
       </c>
       <c r="V12" t="n">
-        <v>226.1116663261494</v>
+        <v>77.11641262213257</v>
       </c>
       <c r="W12" t="n">
-        <v>238.9027100790231</v>
+        <v>89.90745637500626</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.7245612935192</v>
+        <v>32.72456129351923</v>
       </c>
       <c r="C13" t="n">
-        <v>18.92455613891968</v>
+        <v>18.92455613891971</v>
       </c>
       <c r="D13" t="n">
-        <v>2.545920536498073</v>
+        <v>2.545920536498102</v>
       </c>
       <c r="E13" t="n">
-        <v>1.493670392277522</v>
+        <v>1.493670392277551</v>
       </c>
       <c r="F13" t="n">
-        <v>1.960594720463831</v>
+        <v>1.96059472046386</v>
       </c>
       <c r="G13" t="n">
-        <v>17.96311329697623</v>
+        <v>17.96311329697626</v>
       </c>
       <c r="H13" t="n">
-        <v>6.363700576783362</v>
+        <v>6.36370057678339</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.83398394224579</v>
+        <v>57.83398394224582</v>
       </c>
       <c r="T13" t="n">
-        <v>80.6889413296188</v>
+        <v>80.68894132961883</v>
       </c>
       <c r="U13" t="n">
         <v>135.3082370038742</v>
@@ -1591,10 +1591,10 @@
         <v>134.2995837637581</v>
       </c>
       <c r="X13" t="n">
-        <v>79.94468575956117</v>
+        <v>79.9446857595612</v>
       </c>
       <c r="Y13" t="n">
-        <v>70.81955351562885</v>
+        <v>70.81955351562888</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.1078504188222</v>
       </c>
       <c r="C14" t="n">
         <v>229.1191673765039</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>261.0144250789145</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>27.48189517730141</v>
       </c>
       <c r="H14" t="n">
-        <v>174.2835417775414</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>22.53425353909799</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>70.46388924261854</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>184.6142276590012</v>
+        <v>184.6142276590013</v>
       </c>
       <c r="W14" t="n">
-        <v>209.9143271369581</v>
+        <v>209.9143271369582</v>
       </c>
       <c r="X14" t="n">
-        <v>155.5045068910887</v>
+        <v>229.2145853697048</v>
       </c>
       <c r="Y14" t="n">
-        <v>240.6111831659035</v>
+        <v>240.6111831659036</v>
       </c>
     </row>
     <row r="15">
@@ -1683,19 +1683,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.8252483534483</v>
+        <v>8.829994649431484</v>
       </c>
       <c r="C15" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>0.9809963290047039</v>
       </c>
       <c r="E15" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>56.52047122575469</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>39.02901935393511</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T15" t="n">
-        <v>36.49439094626075</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U15" t="n">
-        <v>67.2932315547432</v>
+        <v>216.28848525876</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>89.90745637500623</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
-        <v>53.87132463316527</v>
+        <v>46.94256453696656</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.5961130869169</v>
+        <v>41.60085938290015</v>
       </c>
     </row>
     <row r="16">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.7245612935192</v>
+        <v>32.72456129351923</v>
       </c>
       <c r="C16" t="n">
-        <v>18.92455613891968</v>
+        <v>18.92455613891971</v>
       </c>
       <c r="D16" t="n">
-        <v>2.545920536498073</v>
+        <v>2.545920536498102</v>
       </c>
       <c r="E16" t="n">
-        <v>1.493670392277522</v>
+        <v>1.493670392277551</v>
       </c>
       <c r="F16" t="n">
-        <v>1.960594720463831</v>
+        <v>1.96059472046386</v>
       </c>
       <c r="G16" t="n">
-        <v>17.96311329697623</v>
+        <v>17.96311329697625</v>
       </c>
       <c r="H16" t="n">
-        <v>6.363700576783362</v>
+        <v>6.363700576783401</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.83398394224579</v>
+        <v>57.83398394224582</v>
       </c>
       <c r="T16" t="n">
-        <v>80.6889413296188</v>
+        <v>80.68894132961881</v>
       </c>
       <c r="U16" t="n">
         <v>135.3082370038742</v>
@@ -1828,10 +1828,10 @@
         <v>134.2995837637581</v>
       </c>
       <c r="X16" t="n">
-        <v>79.94468575956117</v>
+        <v>79.9446857595612</v>
       </c>
       <c r="Y16" t="n">
-        <v>70.81955351562885</v>
+        <v>70.81955351562888</v>
       </c>
     </row>
     <row r="17">
@@ -1853,13 +1853,13 @@
         <v>146.6430589396496</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8148750276268</v>
+        <v>165.8148750276258</v>
       </c>
       <c r="G17" t="n">
         <v>167.1413550644751</v>
       </c>
       <c r="H17" t="n">
-        <v>79.0839917262536</v>
+        <v>79.08399172625363</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.093136138991872</v>
+        <v>8.09313613899541</v>
       </c>
       <c r="V17" t="n">
-        <v>89.41467760771349</v>
+        <v>89.41467760771351</v>
       </c>
       <c r="W17" t="n">
         <v>114.7147770856704</v>
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>60.0871720081168</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>127.1165548494722</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>56.52047122575469</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>39.02901935393511</v>
       </c>
       <c r="S18" t="n">
-        <v>106.1854508641115</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T18" t="n">
         <v>185.4896446502776</v>
@@ -1980,10 +1980,10 @@
         <v>216.28848525876</v>
       </c>
       <c r="V18" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>195.9378182409833</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.958367000993</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>15.36025740485483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>135.7881746594375</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>40.10868695258642</v>
+        <v>284.303490707891</v>
       </c>
       <c r="V19" t="n">
-        <v>13.93314764185703</v>
+        <v>55.63703625897016</v>
       </c>
       <c r="W19" t="n">
-        <v>39.10003371247029</v>
+        <v>39.10003371247032</v>
       </c>
       <c r="X19" t="n">
-        <v>5.686726992830978</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>167.1413550644751</v>
       </c>
       <c r="H20" t="n">
-        <v>79.0839917262536</v>
+        <v>79.08399172625363</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.093136138995382</v>
+        <v>8.09313613899541</v>
       </c>
       <c r="V20" t="n">
-        <v>89.41467760771349</v>
+        <v>89.41467760771351</v>
       </c>
       <c r="W20" t="n">
         <v>114.7147770856704</v>
@@ -2160,19 +2160,19 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>95.35801274107322</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,19 +2205,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>39.02901935393511</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>128.0708709315196</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
         <v>238.9027100790231</v>
@@ -2239,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>36.91761789407261</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>93.31793797635734</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.958367000993</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>15.36025740485483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.6841950336356</v>
       </c>
       <c r="U22" t="n">
-        <v>40.10868695258642</v>
+        <v>40.10868695258645</v>
       </c>
       <c r="V22" t="n">
-        <v>13.93314764185703</v>
+        <v>13.93314764185706</v>
       </c>
       <c r="W22" t="n">
-        <v>39.10003371247029</v>
+        <v>39.10003371247032</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>167.1413550644751</v>
       </c>
       <c r="H23" t="n">
-        <v>79.0839917262536</v>
+        <v>79.08399172625363</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>8.093136138995391</v>
+        <v>8.093136138995419</v>
       </c>
       <c r="V23" t="n">
-        <v>89.41467760771349</v>
+        <v>89.41467760771351</v>
       </c>
       <c r="W23" t="n">
         <v>114.7147770856704</v>
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>39.02901935393511</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>216.28848525876</v>
       </c>
       <c r="V24" t="n">
-        <v>95.35801274107199</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
         <v>238.9027100790231</v>
@@ -2463,7 +2463,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
-        <v>190.5961130869169</v>
+        <v>47.97432650101678</v>
       </c>
     </row>
     <row r="25">
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>40.21324716010344</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>15.36025740485483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>135.7881746594375</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>41.70388861711309</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>168.3677639382296</v>
+        <v>284.303490707891</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>13.93314764185706</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>39.10003371247032</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -2555,10 +2555,10 @@
         <v>288.9838039006341</v>
       </c>
       <c r="C26" t="n">
-        <v>276.9951208583158</v>
+        <v>276.9951208583159</v>
       </c>
       <c r="D26" t="n">
-        <v>267.9764249028438</v>
+        <v>267.9764249028439</v>
       </c>
       <c r="E26" t="n">
         <v>289.7185624727493</v>
@@ -2567,13 +2567,13 @@
         <v>308.8903785607265</v>
       </c>
       <c r="G26" t="n">
-        <v>310.2168585975748</v>
+        <v>310.2168585975749</v>
       </c>
       <c r="H26" t="n">
         <v>222.1594952593533</v>
       </c>
       <c r="I26" t="n">
-        <v>46.57653758629989</v>
+        <v>46.57653758629991</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.41020702090994</v>
+        <v>70.41020702090995</v>
       </c>
       <c r="T26" t="n">
         <v>118.3398427244305</v>
@@ -2652,7 +2652,7 @@
         <v>95.80294554235505</v>
       </c>
       <c r="I27" t="n">
-        <v>56.52047122575469</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.60051477533118</v>
+        <v>80.60051477533119</v>
       </c>
       <c r="C28" t="n">
-        <v>66.80050962073166</v>
+        <v>66.80050962073167</v>
       </c>
       <c r="D28" t="n">
-        <v>50.42187401831005</v>
+        <v>50.42187401831006</v>
       </c>
       <c r="E28" t="n">
-        <v>49.3696238740895</v>
+        <v>49.36962387408951</v>
       </c>
       <c r="F28" t="n">
-        <v>49.83654820227581</v>
+        <v>49.83654820227582</v>
       </c>
       <c r="G28" t="n">
         <v>65.83906677878821</v>
       </c>
       <c r="H28" t="n">
-        <v>54.23965405859533</v>
+        <v>54.23965405859536</v>
       </c>
       <c r="I28" t="n">
-        <v>33.45639417554674</v>
+        <v>33.45639417554676</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.6688744372327</v>
+        <v>34.66887443723272</v>
       </c>
       <c r="S28" t="n">
         <v>105.7099374240578</v>
       </c>
       <c r="T28" t="n">
-        <v>128.5648948114307</v>
+        <v>128.5648948114308</v>
       </c>
       <c r="U28" t="n">
-        <v>183.1841904856861</v>
+        <v>183.1841904856862</v>
       </c>
       <c r="V28" t="n">
         <v>157.0086511749568</v>
@@ -2776,7 +2776,7 @@
         <v>182.17553724557</v>
       </c>
       <c r="X28" t="n">
-        <v>127.8206392413731</v>
+        <v>127.8206392413732</v>
       </c>
       <c r="Y28" t="n">
         <v>118.6955069974408</v>
@@ -2792,25 +2792,25 @@
         <v>288.9838039006341</v>
       </c>
       <c r="C29" t="n">
-        <v>276.9951208583158</v>
+        <v>276.9951208583159</v>
       </c>
       <c r="D29" t="n">
-        <v>267.9764249028438</v>
+        <v>267.9764249028439</v>
       </c>
       <c r="E29" t="n">
-        <v>289.7185624727493</v>
+        <v>289.7185624727494</v>
       </c>
       <c r="F29" t="n">
-        <v>308.8903785607265</v>
+        <v>308.8903785607266</v>
       </c>
       <c r="G29" t="n">
-        <v>310.2168585975748</v>
+        <v>310.2168585975749</v>
       </c>
       <c r="H29" t="n">
-        <v>222.1594952593533</v>
+        <v>222.1594952593534</v>
       </c>
       <c r="I29" t="n">
-        <v>46.57653758629989</v>
+        <v>46.57653758629993</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.41020702090994</v>
+        <v>70.41020702090998</v>
       </c>
       <c r="T29" t="n">
         <v>118.3398427244305</v>
       </c>
       <c r="U29" t="n">
-        <v>151.1686396720951</v>
+        <v>151.1686396720952</v>
       </c>
       <c r="V29" t="n">
-        <v>232.4901811408132</v>
+        <v>232.4901811408133</v>
       </c>
       <c r="W29" t="n">
-        <v>257.7902806187701</v>
+        <v>257.7902806187702</v>
       </c>
       <c r="X29" t="n">
-        <v>277.0905388515167</v>
+        <v>277.0905388515168</v>
       </c>
       <c r="Y29" t="n">
         <v>288.4871366477155</v>
@@ -2889,7 +2889,7 @@
         <v>95.80294554235505</v>
       </c>
       <c r="I30" t="n">
-        <v>56.52047122575469</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.60051477533118</v>
+        <v>80.60051477533122</v>
       </c>
       <c r="C31" t="n">
-        <v>66.80050962073166</v>
+        <v>66.8005096207317</v>
       </c>
       <c r="D31" t="n">
-        <v>50.42187401831005</v>
+        <v>50.42187401831009</v>
       </c>
       <c r="E31" t="n">
-        <v>49.3696238740895</v>
+        <v>49.36962387408954</v>
       </c>
       <c r="F31" t="n">
-        <v>49.83654820227581</v>
+        <v>49.83654820227585</v>
       </c>
       <c r="G31" t="n">
-        <v>65.83906677878819</v>
+        <v>65.83906677878824</v>
       </c>
       <c r="H31" t="n">
-        <v>54.23965405859535</v>
+        <v>54.23965405859538</v>
       </c>
       <c r="I31" t="n">
-        <v>33.45639417554675</v>
+        <v>33.45639417554678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.6688744372327</v>
+        <v>34.66887443723274</v>
       </c>
       <c r="S31" t="n">
         <v>105.7099374240578</v>
       </c>
       <c r="T31" t="n">
-        <v>128.5648948114307</v>
+        <v>128.5648948114308</v>
       </c>
       <c r="U31" t="n">
-        <v>183.1841904856861</v>
+        <v>183.1841904856862</v>
       </c>
       <c r="V31" t="n">
         <v>157.0086511749568</v>
       </c>
       <c r="W31" t="n">
-        <v>182.17553724557</v>
+        <v>182.1755372455701</v>
       </c>
       <c r="X31" t="n">
-        <v>127.8206392413731</v>
+        <v>127.8206392413732</v>
       </c>
       <c r="Y31" t="n">
-        <v>118.6955069974408</v>
+        <v>118.6955069974409</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>288.9838039006342</v>
+        <v>288.9838039006341</v>
       </c>
       <c r="C32" t="n">
         <v>276.9951208583159</v>
@@ -3047,7 +3047,7 @@
         <v>222.1594952593534</v>
       </c>
       <c r="I32" t="n">
-        <v>46.57653758630001</v>
+        <v>46.57653758629996</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.41020702091005</v>
+        <v>70.41020702091001</v>
       </c>
       <c r="T32" t="n">
         <v>118.3398427244306</v>
       </c>
       <c r="U32" t="n">
-        <v>151.1686396720953</v>
+        <v>151.1686396720952</v>
       </c>
       <c r="V32" t="n">
         <v>232.4901811408133</v>
@@ -3126,7 +3126,7 @@
         <v>95.80294554235505</v>
       </c>
       <c r="I33" t="n">
-        <v>56.52047122575469</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.60051477533129</v>
+        <v>80.60051477533125</v>
       </c>
       <c r="C34" t="n">
-        <v>66.80050962073177</v>
+        <v>66.80050962073173</v>
       </c>
       <c r="D34" t="n">
-        <v>50.42187401831016</v>
+        <v>50.42187401831012</v>
       </c>
       <c r="E34" t="n">
-        <v>49.36962387408961</v>
+        <v>49.36962387408957</v>
       </c>
       <c r="F34" t="n">
-        <v>49.83654820227592</v>
+        <v>49.83654820227588</v>
       </c>
       <c r="G34" t="n">
-        <v>65.83906677878832</v>
+        <v>65.83906677878826</v>
       </c>
       <c r="H34" t="n">
-        <v>54.23965405859545</v>
+        <v>54.23965405859542</v>
       </c>
       <c r="I34" t="n">
-        <v>33.45639417554685</v>
+        <v>33.45639417554682</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66887443723282</v>
+        <v>34.66887443723277</v>
       </c>
       <c r="S34" t="n">
-        <v>105.7099374240579</v>
+        <v>105.7099374240578</v>
       </c>
       <c r="T34" t="n">
-        <v>128.5648948114309</v>
+        <v>128.5648948114308</v>
       </c>
       <c r="U34" t="n">
-        <v>183.1841904856863</v>
+        <v>183.1841904856862</v>
       </c>
       <c r="V34" t="n">
-        <v>157.0086511749569</v>
+        <v>157.0086511749568</v>
       </c>
       <c r="W34" t="n">
         <v>182.1755372455701</v>
       </c>
       <c r="X34" t="n">
-        <v>127.8206392413733</v>
+        <v>127.8206392413732</v>
       </c>
       <c r="Y34" t="n">
         <v>118.6955069974409</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>218.5735968797228</v>
+        <v>218.5735968797242</v>
       </c>
       <c r="C35" t="n">
-        <v>206.5849138374045</v>
+        <v>206.5849138374059</v>
       </c>
       <c r="D35" t="n">
-        <v>197.5662178819325</v>
+        <v>197.5662178819339</v>
       </c>
       <c r="E35" t="n">
-        <v>219.3083554518381</v>
+        <v>219.3083554518394</v>
       </c>
       <c r="F35" t="n">
-        <v>238.4801715398152</v>
+        <v>238.4801715398166</v>
       </c>
       <c r="G35" t="n">
-        <v>239.8066515766635</v>
+        <v>239.8066515766649</v>
       </c>
       <c r="H35" t="n">
-        <v>151.749288238442</v>
+        <v>151.7492882384434</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>47.92963570351919</v>
+        <v>47.92963570352055</v>
       </c>
       <c r="U35" t="n">
-        <v>80.75843265118381</v>
+        <v>80.75843265118519</v>
       </c>
       <c r="V35" t="n">
-        <v>162.0799741199019</v>
+        <v>162.0799741199033</v>
       </c>
       <c r="W35" t="n">
-        <v>187.3800735978588</v>
+        <v>187.3800735978602</v>
       </c>
       <c r="X35" t="n">
-        <v>206.6803318306054</v>
+        <v>206.6803318306068</v>
       </c>
       <c r="Y35" t="n">
-        <v>218.0769296268042</v>
+        <v>218.0769296268056</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3360,7 @@
         <v>127.1165548494722</v>
       </c>
       <c r="H36" t="n">
-        <v>19.47429228219321</v>
+        <v>19.47429228221041</v>
       </c>
       <c r="I36" t="n">
         <v>56.52047122575469</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.18638448601706</v>
+        <v>10.19030775442124</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>35.29973040314646</v>
+        <v>35.29973040314783</v>
       </c>
       <c r="T37" t="n">
-        <v>58.15468779051947</v>
+        <v>58.15468779052084</v>
       </c>
       <c r="U37" t="n">
-        <v>112.7739834647749</v>
+        <v>112.7739834647762</v>
       </c>
       <c r="V37" t="n">
-        <v>86.59844415404547</v>
+        <v>86.59844415404683</v>
       </c>
       <c r="W37" t="n">
-        <v>111.7653302246587</v>
+        <v>169.7614069562476</v>
       </c>
       <c r="X37" t="n">
-        <v>57.41043222046184</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.8148072196457</v>
+        <v>48.28529997653089</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>218.5735968797228</v>
+        <v>218.5735968797242</v>
       </c>
       <c r="C38" t="n">
-        <v>206.5849138374045</v>
+        <v>206.5849138374059</v>
       </c>
       <c r="D38" t="n">
-        <v>197.5662178819325</v>
+        <v>197.5662178819339</v>
       </c>
       <c r="E38" t="n">
-        <v>219.3083554518381</v>
+        <v>219.3083554518394</v>
       </c>
       <c r="F38" t="n">
-        <v>238.4801715398152</v>
+        <v>238.4801715398166</v>
       </c>
       <c r="G38" t="n">
-        <v>239.8066515766635</v>
+        <v>239.8066515766649</v>
       </c>
       <c r="H38" t="n">
-        <v>151.749288238442</v>
+        <v>151.7492882384434</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>47.92963570351919</v>
+        <v>47.92963570352057</v>
       </c>
       <c r="U38" t="n">
-        <v>80.75843265118381</v>
+        <v>80.75843265118522</v>
       </c>
       <c r="V38" t="n">
-        <v>162.0799741199019</v>
+        <v>162.0799741199033</v>
       </c>
       <c r="W38" t="n">
-        <v>187.3800735978588</v>
+        <v>187.3800735978602</v>
       </c>
       <c r="X38" t="n">
-        <v>206.6803318306054</v>
+        <v>206.6803318306068</v>
       </c>
       <c r="Y38" t="n">
-        <v>218.0769296268042</v>
+        <v>218.0769296268056</v>
       </c>
     </row>
     <row r="39">
@@ -3597,7 +3597,7 @@
         <v>127.1165548494722</v>
       </c>
       <c r="H39" t="n">
-        <v>95.80294554235505</v>
+        <v>19.47429228221174</v>
       </c>
       <c r="I39" t="n">
         <v>56.52047122575469</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>39.02901935393511</v>
       </c>
       <c r="S39" t="n">
         <v>145.2410726443114</v>
@@ -3648,7 +3648,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y39" t="n">
-        <v>153.2964791806902</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>88.76004330465256</v>
+        <v>10.19030775442127</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>35.29973040314646</v>
+        <v>35.29973040314785</v>
       </c>
       <c r="T40" t="n">
-        <v>58.15468779051947</v>
+        <v>229.6841950336356</v>
       </c>
       <c r="U40" t="n">
-        <v>112.7739834647749</v>
+        <v>112.7739834647763</v>
       </c>
       <c r="V40" t="n">
-        <v>86.59844415404547</v>
+        <v>86.59844415404686</v>
       </c>
       <c r="W40" t="n">
-        <v>111.7653302246587</v>
+        <v>111.7653302246601</v>
       </c>
       <c r="X40" t="n">
-        <v>57.41043222046184</v>
+        <v>57.41043222046324</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.28529997652953</v>
+        <v>106.2813767081181</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>218.5735968797241</v>
+        <v>218.5735968797242</v>
       </c>
       <c r="C41" t="n">
         <v>206.5849138374059</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>47.92963570352052</v>
+        <v>47.92963570352058</v>
       </c>
       <c r="U41" t="n">
-        <v>80.75843265118515</v>
+        <v>80.75843265118522</v>
       </c>
       <c r="V41" t="n">
         <v>162.0799741199033</v>
@@ -3806,7 +3806,7 @@
         <v>206.6803318306068</v>
       </c>
       <c r="Y41" t="n">
-        <v>218.0769296268055</v>
+        <v>218.0769296268056</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.18638448600885</v>
+        <v>68.18638448600834</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>35.2997304031478</v>
+        <v>35.29973040314785</v>
       </c>
       <c r="T43" t="n">
-        <v>229.6841950336356</v>
+        <v>58.15468779052087</v>
       </c>
       <c r="U43" t="n">
-        <v>112.7739834647762</v>
+        <v>284.303490707891</v>
       </c>
       <c r="V43" t="n">
-        <v>86.5984441540468</v>
+        <v>86.59844415404686</v>
       </c>
       <c r="W43" t="n">
         <v>111.7653302246601</v>
       </c>
       <c r="X43" t="n">
-        <v>57.41043222046318</v>
+        <v>57.41043222046324</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.28529997653087</v>
+        <v>48.28529997653092</v>
       </c>
     </row>
     <row r="44">
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>47.92963570352149</v>
+        <v>47.92963570352056</v>
       </c>
       <c r="U44" t="n">
-        <v>80.75843265118522</v>
+        <v>80.75843265118519</v>
       </c>
       <c r="V44" t="n">
         <v>162.0799741199033</v>
@@ -4071,10 +4071,10 @@
         <v>127.1165548494722</v>
       </c>
       <c r="H45" t="n">
-        <v>95.80294554235505</v>
+        <v>19.47429228221172</v>
       </c>
       <c r="I45" t="n">
-        <v>56.52047122575469</v>
+        <v>56.5204712257547</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>39.02901935393515</v>
       </c>
       <c r="S45" t="n">
         <v>145.2410726443114</v>
       </c>
       <c r="T45" t="n">
-        <v>148.1900107440697</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U45" t="n">
         <v>216.28848525876</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10.19030775442127</v>
+        <v>10.19030775442124</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>113.2841401373347</v>
+        <v>206.8292376462626</v>
       </c>
       <c r="T46" t="n">
-        <v>58.15468779052087</v>
+        <v>58.15468779052084</v>
       </c>
       <c r="U46" t="n">
-        <v>112.7739834647763</v>
+        <v>112.7739834647762</v>
       </c>
       <c r="V46" t="n">
-        <v>86.59844415404686</v>
+        <v>86.59844415404683</v>
       </c>
       <c r="W46" t="n">
-        <v>111.7653302246601</v>
+        <v>169.7614069562472</v>
       </c>
       <c r="X46" t="n">
-        <v>57.41043222046324</v>
+        <v>57.41043222046321</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.28529997653092</v>
+        <v>48.28529997653089</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1162.273248556363</v>
+        <v>770.7048602713446</v>
       </c>
       <c r="C11" t="n">
-        <v>978.9662738874576</v>
+        <v>539.2713578708356</v>
       </c>
       <c r="D11" t="n">
-        <v>978.9662738874576</v>
+        <v>539.2713578708356</v>
       </c>
       <c r="E11" t="n">
-        <v>734.6808102602481</v>
+        <v>294.9858942436261</v>
       </c>
       <c r="F11" t="n">
-        <v>471.0298758371021</v>
+        <v>294.9858942436261</v>
       </c>
       <c r="G11" t="n">
-        <v>206.0390625888567</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="H11" t="n">
         <v>29.99508099538057</v>
@@ -5039,25 +5039,25 @@
         <v>29.99508099538057</v>
       </c>
       <c r="J11" t="n">
-        <v>29.99508099538057</v>
+        <v>152.9789828377824</v>
       </c>
       <c r="K11" t="n">
-        <v>29.99508099538057</v>
+        <v>469.5331892888867</v>
       </c>
       <c r="L11" t="n">
-        <v>401.1842083132152</v>
+        <v>469.5331892888867</v>
       </c>
       <c r="M11" t="n">
-        <v>772.3733356310497</v>
+        <v>469.5331892888867</v>
       </c>
       <c r="N11" t="n">
-        <v>1143.562462948884</v>
+        <v>840.7223166067213</v>
       </c>
       <c r="O11" t="n">
-        <v>1143.562462948884</v>
+        <v>1211.911443924556</v>
       </c>
       <c r="P11" t="n">
-        <v>1458.103643711981</v>
+        <v>1340.450796129694</v>
       </c>
       <c r="Q11" t="n">
         <v>1499.754049769029</v>
@@ -5069,22 +5069,22 @@
         <v>1476.992177507313</v>
       </c>
       <c r="T11" t="n">
-        <v>1405.816531807699</v>
+        <v>1476.992177507313</v>
       </c>
       <c r="U11" t="n">
-        <v>1405.816531807699</v>
+        <v>1372.656130850462</v>
       </c>
       <c r="V11" t="n">
-        <v>1405.816531807699</v>
+        <v>1372.656130850462</v>
       </c>
       <c r="W11" t="n">
-        <v>1405.816531807699</v>
+        <v>1160.621456974746</v>
       </c>
       <c r="X11" t="n">
-        <v>1405.816531807699</v>
+        <v>1160.621456974746</v>
       </c>
       <c r="Y11" t="n">
-        <v>1405.816531807699</v>
+        <v>917.5798578172679</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>237.12851957405</v>
+        <v>490.2179253470713</v>
       </c>
       <c r="C12" t="n">
-        <v>225.9251030816884</v>
+        <v>328.514252588026</v>
       </c>
       <c r="D12" t="n">
-        <v>87.08646607190046</v>
+        <v>328.514252588026</v>
       </c>
       <c r="E12" t="n">
-        <v>87.08646607190046</v>
+        <v>181.4862426448972</v>
       </c>
       <c r="F12" t="n">
-        <v>87.08646607190046</v>
+        <v>181.4862426448972</v>
       </c>
       <c r="G12" t="n">
-        <v>87.08646607190046</v>
+        <v>53.08568219088494</v>
       </c>
       <c r="H12" t="n">
-        <v>87.08646607190046</v>
+        <v>53.08568219088494</v>
       </c>
       <c r="I12" t="n">
         <v>29.99508099538057</v>
       </c>
       <c r="J12" t="n">
-        <v>29.99508099538057</v>
+        <v>120.6157572122717</v>
       </c>
       <c r="K12" t="n">
-        <v>29.99508099538057</v>
+        <v>402.0075457117349</v>
       </c>
       <c r="L12" t="n">
-        <v>401.1842083132152</v>
+        <v>558.5760106698542</v>
       </c>
       <c r="M12" t="n">
-        <v>757.3757951333594</v>
+        <v>929.7651379876888</v>
       </c>
       <c r="N12" t="n">
-        <v>1128.564922451194</v>
+        <v>929.7651379876888</v>
       </c>
       <c r="O12" t="n">
-        <v>1499.754049769029</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="P12" t="n">
-        <v>1499.754049769029</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="Q12" t="n">
         <v>1499.754049769029</v>
       </c>
       <c r="R12" t="n">
-        <v>1499.754049769029</v>
+        <v>1460.330797896367</v>
       </c>
       <c r="S12" t="n">
-        <v>1499.754049769029</v>
+        <v>1313.622643710194</v>
       </c>
       <c r="T12" t="n">
-        <v>1462.89102861119</v>
+        <v>1126.259366285671</v>
       </c>
       <c r="U12" t="n">
-        <v>1256.697768146294</v>
+        <v>1058.286405119264</v>
       </c>
       <c r="V12" t="n">
-        <v>1028.302145594628</v>
+        <v>980.3910388342815</v>
       </c>
       <c r="W12" t="n">
-        <v>786.9862768279376</v>
+        <v>889.5754263342752</v>
       </c>
       <c r="X12" t="n">
-        <v>589.0692887057321</v>
+        <v>691.6584382120698</v>
       </c>
       <c r="Y12" t="n">
-        <v>396.5479623553109</v>
+        <v>499.1371118616486</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.74412711853078</v>
+        <v>79.74412711853094</v>
       </c>
       <c r="C13" t="n">
-        <v>60.62841384689474</v>
+        <v>60.62841384689487</v>
       </c>
       <c r="D13" t="n">
-        <v>58.05677694134113</v>
+        <v>58.05677694134123</v>
       </c>
       <c r="E13" t="n">
-        <v>56.54801896934363</v>
+        <v>56.54801896934371</v>
       </c>
       <c r="F13" t="n">
-        <v>54.56762026180441</v>
+        <v>54.56762026180446</v>
       </c>
       <c r="G13" t="n">
-        <v>36.42306137596983</v>
+        <v>36.42306137596985</v>
       </c>
       <c r="H13" t="n">
         <v>29.99508099538057</v>
@@ -5200,49 +5200,49 @@
         <v>29.99508099538057</v>
       </c>
       <c r="K13" t="n">
-        <v>94.90588907899621</v>
+        <v>94.90588907899622</v>
       </c>
       <c r="L13" t="n">
         <v>235.5746640210047</v>
       </c>
       <c r="M13" t="n">
-        <v>395.8076110331837</v>
+        <v>395.8076110331843</v>
       </c>
       <c r="N13" t="n">
-        <v>555.4650341729186</v>
+        <v>555.4650341729193</v>
       </c>
       <c r="O13" t="n">
-        <v>692.015952423721</v>
+        <v>692.0159524237217</v>
       </c>
       <c r="P13" t="n">
-        <v>787.574676917875</v>
+        <v>787.5746769178756</v>
       </c>
       <c r="Q13" t="n">
-        <v>787.574676917875</v>
+        <v>787.5746769178756</v>
       </c>
       <c r="R13" t="n">
-        <v>787.5746769178751</v>
+        <v>787.5746769178756</v>
       </c>
       <c r="S13" t="n">
-        <v>729.1565113196471</v>
+        <v>729.1565113196475</v>
       </c>
       <c r="T13" t="n">
-        <v>647.6525301786179</v>
+        <v>647.6525301786183</v>
       </c>
       <c r="U13" t="n">
-        <v>510.9775433060177</v>
+        <v>510.9775433060181</v>
       </c>
       <c r="V13" t="n">
-        <v>400.742495131124</v>
+        <v>400.7424951311243</v>
       </c>
       <c r="W13" t="n">
-        <v>265.0863499152068</v>
+        <v>265.0863499152071</v>
       </c>
       <c r="X13" t="n">
-        <v>184.3341420772662</v>
+        <v>184.3341420772664</v>
       </c>
       <c r="Y13" t="n">
-        <v>112.7992395362269</v>
+        <v>112.7992395362271</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>701.1234994125117</v>
+        <v>289.1880734739713</v>
       </c>
       <c r="C14" t="n">
-        <v>469.6899970120027</v>
+        <v>57.75457107346281</v>
       </c>
       <c r="D14" t="n">
-        <v>469.6899970120027</v>
+        <v>57.75457107346281</v>
       </c>
       <c r="E14" t="n">
-        <v>469.6899970120027</v>
+        <v>57.75457107346281</v>
       </c>
       <c r="F14" t="n">
-        <v>206.0390625888567</v>
+        <v>57.75457107346281</v>
       </c>
       <c r="G14" t="n">
-        <v>206.0390625888567</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="H14" t="n">
         <v>29.99508099538057</v>
@@ -5285,7 +5285,7 @@
         <v>283.5313607309288</v>
       </c>
       <c r="M14" t="n">
-        <v>283.5313607309288</v>
+        <v>654.7204880487634</v>
       </c>
       <c r="N14" t="n">
         <v>654.7204880487634</v>
@@ -5303,25 +5303,25 @@
         <v>1499.754049769029</v>
       </c>
       <c r="S14" t="n">
-        <v>1499.754049769029</v>
+        <v>1476.992177507313</v>
       </c>
       <c r="T14" t="n">
-        <v>1499.754049769029</v>
+        <v>1405.816531807699</v>
       </c>
       <c r="U14" t="n">
-        <v>1499.754049769029</v>
+        <v>1405.816531807699</v>
       </c>
       <c r="V14" t="n">
-        <v>1313.275031931654</v>
+        <v>1219.337513970324</v>
       </c>
       <c r="W14" t="n">
-        <v>1101.240358055938</v>
+        <v>1007.302840094608</v>
       </c>
       <c r="X14" t="n">
-        <v>944.1650985699901</v>
+        <v>775.7729558827853</v>
       </c>
       <c r="Y14" t="n">
-        <v>701.1234994125117</v>
+        <v>532.7313567253068</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>669.3505838339881</v>
+        <v>339.7176690803877</v>
       </c>
       <c r="C15" t="n">
-        <v>507.6469110749428</v>
+        <v>178.0139963213424</v>
       </c>
       <c r="D15" t="n">
-        <v>368.8082740651549</v>
+        <v>177.0230909385093</v>
       </c>
       <c r="E15" t="n">
-        <v>221.7802641220261</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="F15" t="n">
-        <v>87.08646607190046</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="G15" t="n">
-        <v>87.08646607190046</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="H15" t="n">
-        <v>87.08646607190046</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="I15" t="n">
         <v>29.99508099538057</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6157572122717</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="K15" t="n">
-        <v>402.0075457117349</v>
+        <v>311.3868694948438</v>
       </c>
       <c r="L15" t="n">
-        <v>773.1966730295694</v>
+        <v>682.5759968126783</v>
       </c>
       <c r="M15" t="n">
-        <v>1144.385800347404</v>
+        <v>682.5759968126783</v>
       </c>
       <c r="N15" t="n">
-        <v>1499.754049769029</v>
+        <v>1053.765124130513</v>
       </c>
       <c r="O15" t="n">
-        <v>1499.754049769029</v>
+        <v>1053.765124130513</v>
       </c>
       <c r="P15" t="n">
-        <v>1499.754049769029</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="Q15" t="n">
         <v>1499.754049769029</v>
       </c>
       <c r="R15" t="n">
-        <v>1499.754049769029</v>
+        <v>1460.330797896367</v>
       </c>
       <c r="S15" t="n">
-        <v>1499.754049769029</v>
+        <v>1313.622643710194</v>
       </c>
       <c r="T15" t="n">
-        <v>1462.89102861119</v>
+        <v>1126.259366285671</v>
       </c>
       <c r="U15" t="n">
-        <v>1394.918067444782</v>
+        <v>907.7861488525803</v>
       </c>
       <c r="V15" t="n">
-        <v>1166.522444893116</v>
+        <v>679.3905263009142</v>
       </c>
       <c r="W15" t="n">
-        <v>1075.70683239311</v>
+        <v>438.0746575342242</v>
       </c>
       <c r="X15" t="n">
-        <v>1021.29135296567</v>
+        <v>390.6579256787024</v>
       </c>
       <c r="Y15" t="n">
-        <v>828.770026615249</v>
+        <v>348.6368555949649</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.74412711853074</v>
+        <v>79.74412711853051</v>
       </c>
       <c r="C16" t="n">
-        <v>60.6284138468949</v>
+        <v>60.62841384689455</v>
       </c>
       <c r="D16" t="n">
-        <v>58.05677694134128</v>
+        <v>58.05677694134111</v>
       </c>
       <c r="E16" t="n">
-        <v>56.54801896934377</v>
+        <v>56.54801896934357</v>
       </c>
       <c r="F16" t="n">
-        <v>54.56762026180455</v>
+        <v>54.56762026180432</v>
       </c>
       <c r="G16" t="n">
-        <v>36.42306137596983</v>
+        <v>36.42306137596987</v>
       </c>
       <c r="H16" t="n">
         <v>29.99508099538057</v>
@@ -5437,7 +5437,7 @@
         <v>29.99508099538057</v>
       </c>
       <c r="K16" t="n">
-        <v>94.90588907899632</v>
+        <v>94.90588907899622</v>
       </c>
       <c r="L16" t="n">
         <v>235.5746640210048</v>
@@ -5449,7 +5449,7 @@
         <v>555.4650341729188</v>
       </c>
       <c r="O16" t="n">
-        <v>692.015952423721</v>
+        <v>692.0159524237212</v>
       </c>
       <c r="P16" t="n">
         <v>787.5746769178751</v>
@@ -5461,25 +5461,25 @@
         <v>787.5746769178751</v>
       </c>
       <c r="S16" t="n">
-        <v>729.1565113196471</v>
+        <v>729.1565113196469</v>
       </c>
       <c r="T16" t="n">
-        <v>647.652530178618</v>
+        <v>647.6525301786178</v>
       </c>
       <c r="U16" t="n">
-        <v>510.9775433060177</v>
+        <v>510.9775433060175</v>
       </c>
       <c r="V16" t="n">
-        <v>400.7424951311239</v>
+        <v>400.7424951311237</v>
       </c>
       <c r="W16" t="n">
-        <v>265.0863499152067</v>
+        <v>265.0863499152066</v>
       </c>
       <c r="X16" t="n">
-        <v>184.3341420772661</v>
+        <v>184.334142077266</v>
       </c>
       <c r="Y16" t="n">
-        <v>112.7992395362268</v>
+        <v>112.7992395362267</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>855.756514786258</v>
+        <v>855.756514786254</v>
       </c>
       <c r="C17" t="n">
-        <v>720.4841740537164</v>
+        <v>720.4841740537124</v>
       </c>
       <c r="D17" t="n">
-        <v>594.321627215591</v>
+        <v>594.3216272155871</v>
       </c>
       <c r="E17" t="n">
-        <v>446.197325256349</v>
+        <v>446.1973252563448</v>
       </c>
       <c r="F17" t="n">
-        <v>278.7075525011703</v>
+        <v>278.7075525011672</v>
       </c>
       <c r="G17" t="n">
         <v>109.8779009208893</v>
@@ -5513,25 +5513,25 @@
         <v>29.99508099538057</v>
       </c>
       <c r="J17" t="n">
-        <v>126.280407919159</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="K17" t="n">
-        <v>442.8346143702632</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="L17" t="n">
-        <v>442.8346143702632</v>
+        <v>401.1842083132152</v>
       </c>
       <c r="M17" t="n">
-        <v>814.0237416880977</v>
+        <v>401.1842083132152</v>
       </c>
       <c r="N17" t="n">
-        <v>814.0237416880977</v>
+        <v>772.3733356310497</v>
       </c>
       <c r="O17" t="n">
-        <v>1185.212869005932</v>
+        <v>1143.562462948884</v>
       </c>
       <c r="P17" t="n">
-        <v>1499.754049769029</v>
+        <v>1340.450796129694</v>
       </c>
       <c r="Q17" t="n">
         <v>1499.754049769029</v>
@@ -5546,19 +5546,19 @@
         <v>1499.754049769029</v>
       </c>
       <c r="U17" t="n">
-        <v>1491.579164780148</v>
+        <v>1491.579164780144</v>
       </c>
       <c r="V17" t="n">
-        <v>1401.26130861074</v>
+        <v>1401.261308610737</v>
       </c>
       <c r="W17" t="n">
-        <v>1285.387796402993</v>
+        <v>1285.387796402989</v>
       </c>
       <c r="X17" t="n">
-        <v>1150.019073859137</v>
+        <v>1150.019073859133</v>
       </c>
       <c r="Y17" t="n">
-        <v>1003.138636369626</v>
+        <v>1003.138636369622</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>87.08646607190046</v>
+        <v>357.9283915986927</v>
       </c>
       <c r="C18" t="n">
-        <v>87.08646607190046</v>
+        <v>357.9283915986927</v>
       </c>
       <c r="D18" t="n">
-        <v>87.08646607190046</v>
+        <v>219.0897545889048</v>
       </c>
       <c r="E18" t="n">
-        <v>87.08646607190046</v>
+        <v>219.0897545889048</v>
       </c>
       <c r="F18" t="n">
-        <v>87.08646607190046</v>
+        <v>158.3956414493929</v>
       </c>
       <c r="G18" t="n">
-        <v>87.08646607190046</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="H18" t="n">
-        <v>87.08646607190046</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="I18" t="n">
         <v>29.99508099538057</v>
@@ -5595,16 +5595,16 @@
         <v>120.6157572122717</v>
       </c>
       <c r="K18" t="n">
-        <v>402.0075457117349</v>
+        <v>386.1866678155248</v>
       </c>
       <c r="L18" t="n">
-        <v>773.1966730295694</v>
+        <v>757.3757951333594</v>
       </c>
       <c r="M18" t="n">
-        <v>1144.385800347404</v>
+        <v>1128.564922451194</v>
       </c>
       <c r="N18" t="n">
-        <v>1499.754049769029</v>
+        <v>1128.564922451194</v>
       </c>
       <c r="O18" t="n">
         <v>1499.754049769029</v>
@@ -5619,25 +5619,25 @@
         <v>1460.330797896367</v>
       </c>
       <c r="S18" t="n">
-        <v>1353.072766720497</v>
+        <v>1313.622643710194</v>
       </c>
       <c r="T18" t="n">
-        <v>1165.709489295974</v>
+        <v>1126.259366285671</v>
       </c>
       <c r="U18" t="n">
-        <v>947.2362718628831</v>
+        <v>907.7861488525803</v>
       </c>
       <c r="V18" t="n">
-        <v>718.840649311217</v>
+        <v>907.7861488525803</v>
       </c>
       <c r="W18" t="n">
-        <v>477.5247805445271</v>
+        <v>907.7861488525803</v>
       </c>
       <c r="X18" t="n">
-        <v>279.6077924223216</v>
+        <v>709.8691607303748</v>
       </c>
       <c r="Y18" t="n">
-        <v>87.08646607190046</v>
+        <v>517.3478343799536</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>504.192444294359</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="C19" t="n">
-        <v>504.192444294359</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="D19" t="n">
-        <v>351.1205511221217</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="E19" t="n">
-        <v>351.1205511221217</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="F19" t="n">
-        <v>198.6398961478988</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="G19" t="n">
         <v>29.99508099538057</v>
@@ -5674,49 +5674,49 @@
         <v>29.99508099538057</v>
       </c>
       <c r="K19" t="n">
-        <v>94.90588907899621</v>
+        <v>94.90588907899622</v>
       </c>
       <c r="L19" t="n">
         <v>235.5746640210047</v>
       </c>
       <c r="M19" t="n">
-        <v>395.8076110331837</v>
+        <v>395.8076110331838</v>
       </c>
       <c r="N19" t="n">
-        <v>555.4650341729186</v>
+        <v>555.4650341729188</v>
       </c>
       <c r="O19" t="n">
-        <v>692.015952423721</v>
+        <v>692.0159524237212</v>
       </c>
       <c r="P19" t="n">
-        <v>787.574676917875</v>
+        <v>787.5746769178751</v>
       </c>
       <c r="Q19" t="n">
-        <v>787.574676917875</v>
+        <v>772.0592653978197</v>
       </c>
       <c r="R19" t="n">
-        <v>787.574676917875</v>
+        <v>634.8994930145494</v>
       </c>
       <c r="S19" t="n">
-        <v>787.574676917875</v>
+        <v>634.8994930145494</v>
       </c>
       <c r="T19" t="n">
-        <v>787.574676917875</v>
+        <v>634.8994930145494</v>
       </c>
       <c r="U19" t="n">
-        <v>747.0608517132422</v>
+        <v>347.7242498752656</v>
       </c>
       <c r="V19" t="n">
-        <v>732.9869652063159</v>
+        <v>291.5252233510533</v>
       </c>
       <c r="W19" t="n">
-        <v>693.4919816583661</v>
+        <v>252.0302398031035</v>
       </c>
       <c r="X19" t="n">
-        <v>687.7478129787388</v>
+        <v>252.0302398031035</v>
       </c>
       <c r="Y19" t="n">
-        <v>687.7478129787388</v>
+        <v>29.99508099538057</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>855.756514786255</v>
+        <v>855.7565147862547</v>
       </c>
       <c r="C20" t="n">
-        <v>720.4841740537134</v>
+        <v>720.4841740537131</v>
       </c>
       <c r="D20" t="n">
-        <v>594.3216272155881</v>
+        <v>594.3216272155878</v>
       </c>
       <c r="E20" t="n">
-        <v>446.1973252563461</v>
+        <v>446.1973252563457</v>
       </c>
       <c r="F20" t="n">
-        <v>278.7075525011675</v>
+        <v>278.7075525011671</v>
       </c>
       <c r="G20" t="n">
         <v>109.8779009208893</v>
@@ -5753,22 +5753,22 @@
         <v>152.9789828377824</v>
       </c>
       <c r="K20" t="n">
-        <v>226.8834141761905</v>
+        <v>152.9789828377824</v>
       </c>
       <c r="L20" t="n">
-        <v>226.8834141761905</v>
+        <v>442.8346143702632</v>
       </c>
       <c r="M20" t="n">
-        <v>598.072541494025</v>
+        <v>814.0237416880977</v>
       </c>
       <c r="N20" t="n">
-        <v>969.2616688118596</v>
+        <v>1185.212869005932</v>
       </c>
       <c r="O20" t="n">
-        <v>1340.450796129694</v>
+        <v>1185.212869005932</v>
       </c>
       <c r="P20" t="n">
-        <v>1340.450796129694</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="Q20" t="n">
         <v>1499.754049769029</v>
@@ -5789,7 +5789,7 @@
         <v>1401.261308610737</v>
       </c>
       <c r="W20" t="n">
-        <v>1285.38779640299</v>
+        <v>1285.387796402989</v>
       </c>
       <c r="X20" t="n">
         <v>1150.019073859134</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>708.5804237484513</v>
+        <v>164.6888790455062</v>
       </c>
       <c r="C21" t="n">
-        <v>546.876750989406</v>
+        <v>164.6888790455062</v>
       </c>
       <c r="D21" t="n">
-        <v>408.0381139796181</v>
+        <v>164.6888790455062</v>
       </c>
       <c r="E21" t="n">
-        <v>261.0101040364893</v>
+        <v>164.6888790455062</v>
       </c>
       <c r="F21" t="n">
-        <v>126.3163059863636</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="G21" t="n">
         <v>29.99508099538057</v>
@@ -5829,52 +5829,52 @@
         <v>29.99508099538057</v>
       </c>
       <c r="J21" t="n">
-        <v>29.99508099538057</v>
+        <v>120.6157572122717</v>
       </c>
       <c r="K21" t="n">
-        <v>311.3868694948438</v>
+        <v>120.6157572122717</v>
       </c>
       <c r="L21" t="n">
-        <v>682.5759968126783</v>
+        <v>491.8048845301063</v>
       </c>
       <c r="M21" t="n">
-        <v>1053.765124130513</v>
+        <v>491.8048845301063</v>
       </c>
       <c r="N21" t="n">
-        <v>1128.564922451194</v>
+        <v>566.2933322920189</v>
       </c>
       <c r="O21" t="n">
-        <v>1499.754049769029</v>
+        <v>937.4824596098535</v>
       </c>
       <c r="P21" t="n">
-        <v>1499.754049769029</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="Q21" t="n">
         <v>1499.754049769029</v>
       </c>
       <c r="R21" t="n">
-        <v>1499.754049769029</v>
+        <v>1460.330797896367</v>
       </c>
       <c r="S21" t="n">
-        <v>1499.754049769029</v>
+        <v>1313.622643710194</v>
       </c>
       <c r="T21" t="n">
-        <v>1499.754049769029</v>
+        <v>1313.622643710194</v>
       </c>
       <c r="U21" t="n">
-        <v>1499.754049769029</v>
+        <v>1184.25812761775</v>
       </c>
       <c r="V21" t="n">
-        <v>1499.754049769029</v>
+        <v>955.8625050660837</v>
       </c>
       <c r="W21" t="n">
-        <v>1258.438181002339</v>
+        <v>714.5466362993938</v>
       </c>
       <c r="X21" t="n">
-        <v>1060.521192880133</v>
+        <v>516.6296481771883</v>
       </c>
       <c r="Y21" t="n">
-        <v>867.9998665297122</v>
+        <v>324.1083218267671</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>693.4919816583661</v>
+        <v>445.9723327305981</v>
       </c>
       <c r="C22" t="n">
-        <v>656.2014585330402</v>
+        <v>445.9723327305981</v>
       </c>
       <c r="D22" t="n">
-        <v>503.1295653608029</v>
+        <v>292.9004395583607</v>
       </c>
       <c r="E22" t="n">
-        <v>351.1205511221217</v>
+        <v>198.6398961478988</v>
       </c>
       <c r="F22" t="n">
         <v>198.6398961478988</v>
@@ -5911,49 +5911,49 @@
         <v>29.99508099538057</v>
       </c>
       <c r="K22" t="n">
-        <v>94.90588907899621</v>
+        <v>94.90588907899622</v>
       </c>
       <c r="L22" t="n">
         <v>235.5746640210047</v>
       </c>
       <c r="M22" t="n">
-        <v>395.8076110331837</v>
+        <v>395.8076110331838</v>
       </c>
       <c r="N22" t="n">
-        <v>555.4650341729186</v>
+        <v>555.4650341729188</v>
       </c>
       <c r="O22" t="n">
-        <v>692.015952423721</v>
+        <v>692.0159524237212</v>
       </c>
       <c r="P22" t="n">
-        <v>787.574676917875</v>
+        <v>787.5746769178751</v>
       </c>
       <c r="Q22" t="n">
-        <v>787.574676917875</v>
+        <v>772.0592653978197</v>
       </c>
       <c r="R22" t="n">
-        <v>787.574676917875</v>
+        <v>772.0592653978197</v>
       </c>
       <c r="S22" t="n">
-        <v>787.574676917875</v>
+        <v>772.0592653978197</v>
       </c>
       <c r="T22" t="n">
-        <v>787.574676917875</v>
+        <v>540.055027990107</v>
       </c>
       <c r="U22" t="n">
-        <v>747.0608517132422</v>
+        <v>499.5412027854742</v>
       </c>
       <c r="V22" t="n">
-        <v>732.9869652063159</v>
+        <v>485.4673162785479</v>
       </c>
       <c r="W22" t="n">
-        <v>693.4919816583661</v>
+        <v>445.9723327305981</v>
       </c>
       <c r="X22" t="n">
-        <v>693.4919816583661</v>
+        <v>445.9723327305981</v>
       </c>
       <c r="Y22" t="n">
-        <v>693.4919816583661</v>
+        <v>445.9723327305981</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5963,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>855.7565147862542</v>
+        <v>855.7565147862545</v>
       </c>
       <c r="C23" t="n">
-        <v>720.4841740537126</v>
+        <v>720.4841740537129</v>
       </c>
       <c r="D23" t="n">
-        <v>594.3216272155873</v>
+        <v>594.3216272155878</v>
       </c>
       <c r="E23" t="n">
-        <v>446.1973252563453</v>
+        <v>446.1973252563455</v>
       </c>
       <c r="F23" t="n">
-        <v>278.7075525011667</v>
+        <v>278.7075525011669</v>
       </c>
       <c r="G23" t="n">
         <v>109.8779009208893</v>
       </c>
       <c r="H23" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="I23" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="J23" t="n">
-        <v>29.99508099538055</v>
+        <v>152.9789828377824</v>
       </c>
       <c r="K23" t="n">
-        <v>346.5492874464847</v>
+        <v>152.9789828377824</v>
       </c>
       <c r="L23" t="n">
-        <v>346.5492874464847</v>
+        <v>152.9789828377824</v>
       </c>
       <c r="M23" t="n">
-        <v>717.738414764319</v>
+        <v>524.1681101556169</v>
       </c>
       <c r="N23" t="n">
-        <v>1088.927542082153</v>
+        <v>895.3572374734514</v>
       </c>
       <c r="O23" t="n">
-        <v>1460.116669399988</v>
+        <v>1266.546364791286</v>
       </c>
       <c r="P23" t="n">
-        <v>1499.754049769028</v>
+        <v>1340.450796129694</v>
       </c>
       <c r="Q23" t="n">
         <v>1499.754049769028</v>
@@ -6020,19 +6020,19 @@
         <v>1499.754049769028</v>
       </c>
       <c r="U23" t="n">
-        <v>1491.579164780144</v>
+        <v>1491.579164780145</v>
       </c>
       <c r="V23" t="n">
-        <v>1401.261308610736</v>
+        <v>1401.261308610737</v>
       </c>
       <c r="W23" t="n">
         <v>1285.387796402989</v>
       </c>
       <c r="X23" t="n">
-        <v>1150.019073859133</v>
+        <v>1150.019073859134</v>
       </c>
       <c r="Y23" t="n">
-        <v>1003.138636369622</v>
+        <v>1003.138636369623</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>612.2591987574682</v>
+        <v>191.6987537544259</v>
       </c>
       <c r="C24" t="n">
-        <v>450.5555259984229</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="D24" t="n">
-        <v>311.716888988635</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="E24" t="n">
-        <v>164.6888790455062</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="F24" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="G24" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="H24" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="I24" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="J24" t="n">
-        <v>120.6157572122717</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="K24" t="n">
-        <v>402.0075457117349</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="L24" t="n">
-        <v>773.1966730295692</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="M24" t="n">
-        <v>1144.385800347404</v>
+        <v>401.1842083132151</v>
       </c>
       <c r="N24" t="n">
-        <v>1499.754049769028</v>
+        <v>772.3733356310496</v>
       </c>
       <c r="O24" t="n">
-        <v>1499.754049769028</v>
+        <v>1143.562462948884</v>
       </c>
       <c r="P24" t="n">
-        <v>1499.754049769028</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="Q24" t="n">
         <v>1499.754049769028</v>
       </c>
       <c r="R24" t="n">
-        <v>1499.754049769028</v>
+        <v>1460.330797896367</v>
       </c>
       <c r="S24" t="n">
-        <v>1499.754049769028</v>
+        <v>1313.622643710194</v>
       </c>
       <c r="T24" t="n">
-        <v>1499.754049769028</v>
+        <v>1126.259366285671</v>
       </c>
       <c r="U24" t="n">
-        <v>1499.754049769028</v>
+        <v>907.78614885258</v>
       </c>
       <c r="V24" t="n">
-        <v>1403.432824778046</v>
+        <v>679.390526300914</v>
       </c>
       <c r="W24" t="n">
-        <v>1162.116956011356</v>
+        <v>438.074657534224</v>
       </c>
       <c r="X24" t="n">
-        <v>964.1999678891503</v>
+        <v>240.1576694120186</v>
       </c>
       <c r="Y24" t="n">
-        <v>771.6786415387292</v>
+        <v>191.6987537544259</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>70.61452257124262</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="C25" t="n">
-        <v>70.61452257124262</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="D25" t="n">
-        <v>70.61452257124262</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="E25" t="n">
-        <v>70.61452257124262</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="F25" t="n">
-        <v>70.61452257124262</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="G25" t="n">
-        <v>70.61452257124262</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="H25" t="n">
-        <v>70.61452257124262</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="I25" t="n">
-        <v>70.61452257124262</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="J25" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="K25" t="n">
-        <v>94.90588907899618</v>
+        <v>94.90588907899621</v>
       </c>
       <c r="L25" t="n">
         <v>235.5746640210047</v>
       </c>
       <c r="M25" t="n">
-        <v>395.8076110331837</v>
+        <v>395.8076110331838</v>
       </c>
       <c r="N25" t="n">
-        <v>555.4650341729186</v>
+        <v>555.4650341729188</v>
       </c>
       <c r="O25" t="n">
-        <v>692.015952423721</v>
+        <v>692.0159524237212</v>
       </c>
       <c r="P25" t="n">
-        <v>787.574676917875</v>
+        <v>787.5746769178751</v>
       </c>
       <c r="Q25" t="n">
-        <v>787.574676917875</v>
+        <v>772.0592653978197</v>
       </c>
       <c r="R25" t="n">
-        <v>787.574676917875</v>
+        <v>634.8994930145494</v>
       </c>
       <c r="S25" t="n">
-        <v>787.574676917875</v>
+        <v>592.7743529972635</v>
       </c>
       <c r="T25" t="n">
-        <v>787.574676917875</v>
+        <v>592.7743529972635</v>
       </c>
       <c r="U25" t="n">
-        <v>617.5062284954208</v>
+        <v>305.5991098579796</v>
       </c>
       <c r="V25" t="n">
-        <v>356.7709240538435</v>
+        <v>291.5252233510533</v>
       </c>
       <c r="W25" t="n">
-        <v>70.61452257124262</v>
+        <v>252.0302398031035</v>
       </c>
       <c r="X25" t="n">
-        <v>70.61452257124262</v>
+        <v>252.0302398031035</v>
       </c>
       <c r="Y25" t="n">
-        <v>70.61452257124262</v>
+        <v>29.99508099538057</v>
       </c>
     </row>
     <row r="26">
@@ -6209,7 +6209,7 @@
         <v>1259.695398890398</v>
       </c>
       <c r="E26" t="n">
-        <v>967.0503862916619</v>
+        <v>967.0503862916617</v>
       </c>
       <c r="F26" t="n">
         <v>655.0399028969887</v>
@@ -6224,31 +6224,31 @@
         <v>70.23900244928363</v>
       </c>
       <c r="J26" t="n">
-        <v>293.3310115116683</v>
+        <v>193.2229042916855</v>
       </c>
       <c r="K26" t="n">
-        <v>709.9933251827551</v>
+        <v>609.8852179627725</v>
       </c>
       <c r="L26" t="n">
-        <v>1252.784924042173</v>
+        <v>1152.67681682219</v>
       </c>
       <c r="M26" t="n">
-        <v>1851.613370049065</v>
+        <v>1696.926289792197</v>
       </c>
       <c r="N26" t="n">
-        <v>2337.132696919369</v>
+        <v>2282.553723882484</v>
       </c>
       <c r="O26" t="n">
-        <v>2843.459947474075</v>
+        <v>2788.880974437191</v>
       </c>
       <c r="P26" t="n">
-        <v>3203.530262420269</v>
+        <v>3203.53026242027</v>
       </c>
       <c r="Q26" t="n">
-        <v>3462.941623279586</v>
+        <v>3462.941623279587</v>
       </c>
       <c r="R26" t="n">
-        <v>3511.950122464181</v>
+        <v>3511.950122464182</v>
       </c>
       <c r="S26" t="n">
         <v>3440.828701230939</v>
@@ -6260,7 +6260,7 @@
         <v>3168.597910931418</v>
       </c>
       <c r="V26" t="n">
-        <v>2933.759344122516</v>
+        <v>2933.759344122515</v>
       </c>
       <c r="W26" t="n">
         <v>2673.365121275273</v>
@@ -6288,10 +6288,10 @@
         <v>634.2234080360552</v>
       </c>
       <c r="E27" t="n">
-        <v>487.1953980929264</v>
+        <v>487.1953980929263</v>
       </c>
       <c r="F27" t="n">
-        <v>352.5016000428008</v>
+        <v>352.5016000428007</v>
       </c>
       <c r="G27" t="n">
         <v>224.1010395887884</v>
@@ -6303,25 +6303,25 @@
         <v>70.23900244928363</v>
       </c>
       <c r="J27" t="n">
-        <v>70.23900244928363</v>
+        <v>160.8596786661748</v>
       </c>
       <c r="K27" t="n">
-        <v>117.2170367589568</v>
+        <v>442.251467165638</v>
       </c>
       <c r="L27" t="n">
-        <v>552.8264986597617</v>
+        <v>877.8609290664428</v>
       </c>
       <c r="M27" t="n">
-        <v>1119.298709225476</v>
+        <v>920.4989247619704</v>
       </c>
       <c r="N27" t="n">
-        <v>1714.158656621462</v>
+        <v>1515.358872157957</v>
       </c>
       <c r="O27" t="n">
-        <v>2182.83106159791</v>
+        <v>1984.031277134405</v>
       </c>
       <c r="P27" t="n">
-        <v>2546.30286729358</v>
+        <v>2347.503082830075</v>
       </c>
       <c r="Q27" t="n">
         <v>2546.30286729358</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>443.9396799526547</v>
+        <v>443.9396799526548</v>
       </c>
       <c r="C28" t="n">
-        <v>376.4644177094914</v>
+        <v>376.4644177094915</v>
       </c>
       <c r="D28" t="n">
-        <v>325.5332318324105</v>
+        <v>325.5332318324106</v>
       </c>
       <c r="E28" t="n">
         <v>275.6649248888858</v>
@@ -6382,52 +6382,52 @@
         <v>70.23900244928363</v>
       </c>
       <c r="J28" t="n">
-        <v>130.535994980764</v>
+        <v>130.5359949807639</v>
       </c>
       <c r="K28" t="n">
-        <v>295.5549102843615</v>
+        <v>295.5549102843623</v>
       </c>
       <c r="L28" t="n">
-        <v>536.3317924463528</v>
+        <v>536.3317924463537</v>
       </c>
       <c r="M28" t="n">
-        <v>796.6728466785146</v>
+        <v>796.6728466785155</v>
       </c>
       <c r="N28" t="n">
-        <v>1056.438377038232</v>
+        <v>1056.438377038233</v>
       </c>
       <c r="O28" t="n">
         <v>1293.097402509018</v>
       </c>
       <c r="P28" t="n">
-        <v>1488.764234223154</v>
+        <v>1488.764234223155</v>
       </c>
       <c r="Q28" t="n">
-        <v>1573.665686612331</v>
+        <v>1573.665686612332</v>
       </c>
       <c r="R28" t="n">
-        <v>1538.646621524217</v>
+        <v>1538.646621524218</v>
       </c>
       <c r="S28" t="n">
-        <v>1431.868906954462</v>
+        <v>1431.868906954463</v>
       </c>
       <c r="T28" t="n">
-        <v>1302.005376841905</v>
+        <v>1302.005376841906</v>
       </c>
       <c r="U28" t="n">
-        <v>1116.970840997778</v>
+        <v>1116.970840997779</v>
       </c>
       <c r="V28" t="n">
-        <v>958.376243851357</v>
+        <v>958.3762438513577</v>
       </c>
       <c r="W28" t="n">
-        <v>774.3605496639125</v>
+        <v>774.3605496639132</v>
       </c>
       <c r="X28" t="n">
-        <v>645.2487928544447</v>
+        <v>645.2487928544454</v>
       </c>
       <c r="Y28" t="n">
-        <v>525.3543413418781</v>
+        <v>525.3543413418782</v>
       </c>
     </row>
     <row r="29">
@@ -6443,64 +6443,64 @@
         <v>1530.37865636802</v>
       </c>
       <c r="D29" t="n">
-        <v>1259.6953988904</v>
+        <v>1259.695398890399</v>
       </c>
       <c r="E29" t="n">
-        <v>967.050386291663</v>
+        <v>967.0503862916626</v>
       </c>
       <c r="F29" t="n">
-        <v>655.0399028969898</v>
+        <v>655.0399028969896</v>
       </c>
       <c r="G29" t="n">
-        <v>341.6895406772173</v>
+        <v>341.6895406772169</v>
       </c>
       <c r="H29" t="n">
-        <v>117.2860101122128</v>
+        <v>117.2860101122129</v>
       </c>
       <c r="I29" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J29" t="n">
         <v>293.3310115116683</v>
       </c>
       <c r="K29" t="n">
-        <v>709.9933251827551</v>
+        <v>709.9933251827553</v>
       </c>
       <c r="L29" t="n">
-        <v>1252.784924042173</v>
+        <v>1198.20595100529</v>
       </c>
       <c r="M29" t="n">
-        <v>1851.613370049065</v>
+        <v>1797.034397012182</v>
       </c>
       <c r="N29" t="n">
-        <v>2437.240804139352</v>
+        <v>2282.553723882486</v>
       </c>
       <c r="O29" t="n">
-        <v>2937.997580841769</v>
+        <v>2788.880974437192</v>
       </c>
       <c r="P29" t="n">
-        <v>3352.646868824848</v>
+        <v>3203.530262420271</v>
       </c>
       <c r="Q29" t="n">
-        <v>3511.950122464182</v>
+        <v>3462.941623279588</v>
       </c>
       <c r="R29" t="n">
-        <v>3511.950122464182</v>
+        <v>3511.950122464183</v>
       </c>
       <c r="S29" t="n">
-        <v>3440.82870123094</v>
+        <v>3440.828701230941</v>
       </c>
       <c r="T29" t="n">
-        <v>3321.293506559798</v>
+        <v>3321.293506559799</v>
       </c>
       <c r="U29" t="n">
-        <v>3168.597910931419</v>
+        <v>3168.59791093142</v>
       </c>
       <c r="V29" t="n">
-        <v>2933.759344122516</v>
+        <v>2933.759344122517</v>
       </c>
       <c r="W29" t="n">
-        <v>2673.365121275274</v>
+        <v>2673.365121275275</v>
       </c>
       <c r="X29" t="n">
         <v>2393.475688091924</v>
@@ -6531,34 +6531,34 @@
         <v>352.5016000428008</v>
       </c>
       <c r="G30" t="n">
-        <v>224.1010395887884</v>
+        <v>224.1010395887885</v>
       </c>
       <c r="H30" t="n">
         <v>127.3303875258035</v>
       </c>
       <c r="I30" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J30" t="n">
-        <v>70.23900244928365</v>
+        <v>160.8596786661748</v>
       </c>
       <c r="K30" t="n">
-        <v>117.2170367589568</v>
+        <v>442.251467165638</v>
       </c>
       <c r="L30" t="n">
-        <v>552.8264986597617</v>
+        <v>877.8609290664428</v>
       </c>
       <c r="M30" t="n">
-        <v>1119.298709225476</v>
+        <v>920.4989247619704</v>
       </c>
       <c r="N30" t="n">
-        <v>1714.158656621462</v>
+        <v>1515.358872157957</v>
       </c>
       <c r="O30" t="n">
-        <v>2182.83106159791</v>
+        <v>1984.031277134405</v>
       </c>
       <c r="P30" t="n">
-        <v>2546.30286729358</v>
+        <v>2347.503082830075</v>
       </c>
       <c r="Q30" t="n">
         <v>2546.30286729358</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>443.9396799526546</v>
+        <v>443.9396799526551</v>
       </c>
       <c r="C31" t="n">
-        <v>376.4644177094913</v>
+        <v>376.4644177094918</v>
       </c>
       <c r="D31" t="n">
-        <v>325.5332318324105</v>
+        <v>325.5332318324109</v>
       </c>
       <c r="E31" t="n">
-        <v>275.6649248888857</v>
+        <v>275.6649248888861</v>
       </c>
       <c r="F31" t="n">
-        <v>225.3249772098192</v>
+        <v>225.3249772098196</v>
       </c>
       <c r="G31" t="n">
-        <v>158.8208693524574</v>
+        <v>158.8208693524577</v>
       </c>
       <c r="H31" t="n">
         <v>104.033340000341</v>
       </c>
       <c r="I31" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J31" t="n">
-        <v>130.535994980764</v>
+        <v>130.5359949807641</v>
       </c>
       <c r="K31" t="n">
         <v>295.5549102843624</v>
@@ -6628,7 +6628,7 @@
         <v>536.3317924463537</v>
       </c>
       <c r="M31" t="n">
-        <v>796.6728466785153</v>
+        <v>796.6728466785155</v>
       </c>
       <c r="N31" t="n">
         <v>1056.438377038233</v>
@@ -6655,16 +6655,16 @@
         <v>1116.970840997778</v>
       </c>
       <c r="V31" t="n">
-        <v>958.376243851357</v>
+        <v>958.3762438513575</v>
       </c>
       <c r="W31" t="n">
-        <v>774.3605496639125</v>
+        <v>774.3605496639129</v>
       </c>
       <c r="X31" t="n">
-        <v>645.2487928544447</v>
+        <v>645.2487928544451</v>
       </c>
       <c r="Y31" t="n">
-        <v>525.354341341878</v>
+        <v>525.3543413418786</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1810.171707740056</v>
+        <v>1810.171707740055</v>
       </c>
       <c r="C32" t="n">
         <v>1530.378656368019</v>
@@ -6683,10 +6683,10 @@
         <v>1259.695398890399</v>
       </c>
       <c r="E32" t="n">
-        <v>967.0503862916621</v>
+        <v>967.0503862916619</v>
       </c>
       <c r="F32" t="n">
-        <v>655.0399028969887</v>
+        <v>655.0399028969886</v>
       </c>
       <c r="G32" t="n">
         <v>341.689540677216</v>
@@ -6695,40 +6695,40 @@
         <v>117.2860101122129</v>
       </c>
       <c r="I32" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928367</v>
       </c>
       <c r="J32" t="n">
-        <v>293.3310115116682</v>
+        <v>238.7520384747862</v>
       </c>
       <c r="K32" t="n">
-        <v>609.8852179627723</v>
+        <v>655.4143521458731</v>
       </c>
       <c r="L32" t="n">
-        <v>1098.097843785307</v>
+        <v>1098.097843785308</v>
       </c>
       <c r="M32" t="n">
-        <v>1696.926289792198</v>
+        <v>1696.926289792199</v>
       </c>
       <c r="N32" t="n">
-        <v>2282.553723882485</v>
+        <v>2282.553723882486</v>
       </c>
       <c r="O32" t="n">
-        <v>2788.880974437191</v>
+        <v>2788.880974437192</v>
       </c>
       <c r="P32" t="n">
-        <v>3203.53026242027</v>
+        <v>3203.530262420271</v>
       </c>
       <c r="Q32" t="n">
-        <v>3462.941623279587</v>
+        <v>3462.941623279588</v>
       </c>
       <c r="R32" t="n">
-        <v>3511.950122464182</v>
+        <v>3511.950122464184</v>
       </c>
       <c r="S32" t="n">
-        <v>3440.82870123094</v>
+        <v>3440.828701230941</v>
       </c>
       <c r="T32" t="n">
-        <v>3321.293506559798</v>
+        <v>3321.293506559799</v>
       </c>
       <c r="U32" t="n">
         <v>3168.597910931419</v>
@@ -6737,7 +6737,7 @@
         <v>2933.759344122517</v>
       </c>
       <c r="W32" t="n">
-        <v>2673.365121275275</v>
+        <v>2673.365121275274</v>
       </c>
       <c r="X32" t="n">
         <v>2393.475688091924</v>
@@ -6768,34 +6768,34 @@
         <v>352.5016000428008</v>
       </c>
       <c r="G33" t="n">
-        <v>224.1010395887884</v>
+        <v>224.1010395887885</v>
       </c>
       <c r="H33" t="n">
-        <v>127.3303875258035</v>
+        <v>127.3303875258036</v>
       </c>
       <c r="I33" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928367</v>
       </c>
       <c r="J33" t="n">
-        <v>160.8596786661748</v>
+        <v>70.23900244928367</v>
       </c>
       <c r="K33" t="n">
-        <v>442.251467165638</v>
+        <v>351.6307909487468</v>
       </c>
       <c r="L33" t="n">
-        <v>877.8609290664428</v>
+        <v>787.2402528495518</v>
       </c>
       <c r="M33" t="n">
-        <v>1444.333139632157</v>
+        <v>1119.298709225476</v>
       </c>
       <c r="N33" t="n">
-        <v>1515.358872157957</v>
+        <v>1714.158656621462</v>
       </c>
       <c r="O33" t="n">
-        <v>1984.031277134405</v>
+        <v>2182.83106159791</v>
       </c>
       <c r="P33" t="n">
-        <v>2347.503082830075</v>
+        <v>2546.30286729358</v>
       </c>
       <c r="Q33" t="n">
         <v>2546.30286729358</v>
@@ -6835,52 +6835,52 @@
         <v>443.9396799526555</v>
       </c>
       <c r="C34" t="n">
-        <v>376.4644177094921</v>
+        <v>376.4644177094922</v>
       </c>
       <c r="D34" t="n">
-        <v>325.5332318324111</v>
+        <v>325.5332318324112</v>
       </c>
       <c r="E34" t="n">
-        <v>275.6649248888862</v>
+        <v>275.6649248888864</v>
       </c>
       <c r="F34" t="n">
-        <v>225.3249772098196</v>
+        <v>225.3249772098198</v>
       </c>
       <c r="G34" t="n">
-        <v>158.8208693524577</v>
+        <v>158.820869352458</v>
       </c>
       <c r="H34" t="n">
         <v>104.0333400003411</v>
       </c>
       <c r="I34" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928367</v>
       </c>
       <c r="J34" t="n">
-        <v>130.5359949807657</v>
+        <v>130.535994980764</v>
       </c>
       <c r="K34" t="n">
-        <v>295.554910284364</v>
+        <v>295.5549102843623</v>
       </c>
       <c r="L34" t="n">
-        <v>536.3317924463552</v>
+        <v>536.3317924463536</v>
       </c>
       <c r="M34" t="n">
-        <v>796.6728466785169</v>
+        <v>796.6728466785154</v>
       </c>
       <c r="N34" t="n">
-        <v>1056.438377038234</v>
+        <v>1056.438377038233</v>
       </c>
       <c r="O34" t="n">
-        <v>1293.09740250902</v>
+        <v>1293.097402509019</v>
       </c>
       <c r="P34" t="n">
-        <v>1488.764234223156</v>
+        <v>1488.764234223155</v>
       </c>
       <c r="Q34" t="n">
-        <v>1573.665686612333</v>
+        <v>1573.665686612332</v>
       </c>
       <c r="R34" t="n">
-        <v>1538.646621524219</v>
+        <v>1538.646621524218</v>
       </c>
       <c r="S34" t="n">
         <v>1431.868906954463</v>
@@ -6892,13 +6892,13 @@
         <v>1116.970840997779</v>
       </c>
       <c r="V34" t="n">
-        <v>958.3762438513581</v>
+        <v>958.3762438513583</v>
       </c>
       <c r="W34" t="n">
-        <v>774.3605496639136</v>
+        <v>774.3605496639137</v>
       </c>
       <c r="X34" t="n">
-        <v>645.2487928544457</v>
+        <v>645.2487928544456</v>
       </c>
       <c r="Y34" t="n">
         <v>525.354341341879</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1315.115623597493</v>
+        <v>1315.115623597501</v>
       </c>
       <c r="C35" t="n">
-        <v>1106.443993458701</v>
+        <v>1106.443993458708</v>
       </c>
       <c r="D35" t="n">
-        <v>906.8821572143248</v>
+        <v>906.8821572143301</v>
       </c>
       <c r="E35" t="n">
-        <v>685.3585658488319</v>
+        <v>685.3585658488357</v>
       </c>
       <c r="F35" t="n">
-        <v>444.4695036874023</v>
+        <v>444.4695036874048</v>
       </c>
       <c r="G35" t="n">
-        <v>202.2405627008731</v>
+        <v>202.2405627008748</v>
       </c>
       <c r="H35" t="n">
-        <v>48.95845336911342</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="I35" t="n">
-        <v>48.95845336911342</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="J35" t="n">
-        <v>171.9423552115153</v>
+        <v>171.9423552115156</v>
       </c>
       <c r="K35" t="n">
-        <v>488.4965616626195</v>
+        <v>488.4965616626198</v>
       </c>
       <c r="L35" t="n">
-        <v>931.1800533020546</v>
+        <v>583.6194250613221</v>
       </c>
       <c r="M35" t="n">
-        <v>1429.900392088963</v>
+        <v>1082.339763848231</v>
       </c>
       <c r="N35" t="n">
-        <v>1915.419718959267</v>
+        <v>1567.859090718535</v>
       </c>
       <c r="O35" t="n">
-        <v>2321.638862293991</v>
+        <v>1974.078234053258</v>
       </c>
       <c r="P35" t="n">
-        <v>2447.922668455671</v>
+        <v>2288.619414816354</v>
       </c>
       <c r="Q35" t="n">
-        <v>2447.922668455671</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="R35" t="n">
-        <v>2447.922668455671</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="S35" t="n">
-        <v>2447.922668455671</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="T35" t="n">
-        <v>2399.508895017773</v>
+        <v>2399.508895017789</v>
       </c>
       <c r="U35" t="n">
-        <v>2317.934720622638</v>
+        <v>2317.934720622653</v>
       </c>
       <c r="V35" t="n">
-        <v>2154.21757504698</v>
+        <v>2154.217575046993</v>
       </c>
       <c r="W35" t="n">
-        <v>1964.944773432981</v>
+        <v>1964.944773432993</v>
       </c>
       <c r="X35" t="n">
-        <v>1756.176761482874</v>
+        <v>1756.176761482885</v>
       </c>
       <c r="Y35" t="n">
-        <v>1535.897034587112</v>
+        <v>1535.897034587121</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>836.3855189669789</v>
+        <v>836.3855189669966</v>
       </c>
       <c r="C36" t="n">
-        <v>674.6818462079336</v>
+        <v>674.6818462079514</v>
       </c>
       <c r="D36" t="n">
-        <v>535.8432091981457</v>
+        <v>535.8432091981634</v>
       </c>
       <c r="E36" t="n">
-        <v>388.8151992550169</v>
+        <v>388.8151992550347</v>
       </c>
       <c r="F36" t="n">
-        <v>254.1214012048913</v>
+        <v>254.121401204909</v>
       </c>
       <c r="G36" t="n">
-        <v>125.720840750879</v>
+        <v>125.7208407508967</v>
       </c>
       <c r="H36" t="n">
-        <v>106.0498384456333</v>
+        <v>106.0498384456337</v>
       </c>
       <c r="I36" t="n">
-        <v>48.95845336911342</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="J36" t="n">
-        <v>48.95845336911342</v>
+        <v>139.5791295860049</v>
       </c>
       <c r="K36" t="n">
-        <v>48.95845336911342</v>
+        <v>414.8970008535464</v>
       </c>
       <c r="L36" t="n">
-        <v>484.5679152699183</v>
+        <v>850.5064627543513</v>
       </c>
       <c r="M36" t="n">
-        <v>1051.040125835632</v>
+        <v>1416.978673320065</v>
       </c>
       <c r="N36" t="n">
-        <v>1615.778457783553</v>
+        <v>1416.978673320065</v>
       </c>
       <c r="O36" t="n">
-        <v>2084.450862760001</v>
+        <v>1885.651078296514</v>
       </c>
       <c r="P36" t="n">
-        <v>2447.922668455671</v>
+        <v>2249.122883992184</v>
       </c>
       <c r="Q36" t="n">
-        <v>2447.922668455671</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="R36" t="n">
-        <v>2408.499416583009</v>
+        <v>2408.499416583027</v>
       </c>
       <c r="S36" t="n">
-        <v>2261.791262396836</v>
+        <v>2261.791262396854</v>
       </c>
       <c r="T36" t="n">
-        <v>2074.427984972313</v>
+        <v>2074.427984972331</v>
       </c>
       <c r="U36" t="n">
-        <v>1855.954767539223</v>
+        <v>1855.95476753924</v>
       </c>
       <c r="V36" t="n">
-        <v>1627.559144987556</v>
+        <v>1627.559144987574</v>
       </c>
       <c r="W36" t="n">
-        <v>1386.243276220866</v>
+        <v>1386.243276220884</v>
       </c>
       <c r="X36" t="n">
-        <v>1188.326288098661</v>
+        <v>1188.326288098679</v>
       </c>
       <c r="Y36" t="n">
-        <v>995.8049617482399</v>
+        <v>995.8049617482576</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>48.95845336911342</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="C37" t="n">
-        <v>48.95845336911342</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="D37" t="n">
-        <v>48.95845336911342</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="E37" t="n">
-        <v>48.95845336911342</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="F37" t="n">
-        <v>48.95845336911342</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="G37" t="n">
-        <v>48.95845336911342</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="H37" t="n">
-        <v>48.95845336911342</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="I37" t="n">
-        <v>48.95845336911342</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="J37" t="n">
-        <v>48.95845336911342</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="K37" t="n">
-        <v>113.8692614527291</v>
+        <v>113.8692614527294</v>
       </c>
       <c r="L37" t="n">
-        <v>254.5380363947375</v>
+        <v>254.5380363947379</v>
       </c>
       <c r="M37" t="n">
-        <v>414.7709834069166</v>
+        <v>414.7709834069169</v>
       </c>
       <c r="N37" t="n">
-        <v>574.4284065466516</v>
+        <v>574.4284065466518</v>
       </c>
       <c r="O37" t="n">
-        <v>710.979324797454</v>
+        <v>710.9793247974542</v>
       </c>
       <c r="P37" t="n">
-        <v>806.5380492916079</v>
+        <v>806.5380492916081</v>
       </c>
       <c r="Q37" t="n">
-        <v>806.5380492916079</v>
+        <v>806.5380492916081</v>
       </c>
       <c r="R37" t="n">
-        <v>806.5380492916079</v>
+        <v>806.5380492916081</v>
       </c>
       <c r="S37" t="n">
-        <v>770.8817559550963</v>
+        <v>770.8817559550952</v>
       </c>
       <c r="T37" t="n">
-        <v>712.1396470757837</v>
+        <v>712.1396470757812</v>
       </c>
       <c r="U37" t="n">
-        <v>598.2265324649001</v>
+        <v>598.2265324648962</v>
       </c>
       <c r="V37" t="n">
-        <v>510.7533565517228</v>
+        <v>510.7533565517176</v>
       </c>
       <c r="W37" t="n">
-        <v>397.8590835975221</v>
+        <v>339.2771879090432</v>
       </c>
       <c r="X37" t="n">
-        <v>339.868748021298</v>
+        <v>108.024723804419</v>
       </c>
       <c r="Y37" t="n">
-        <v>117.8335892135751</v>
+        <v>59.25169352509483</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1315.115623597495</v>
+        <v>1315.115623597503</v>
       </c>
       <c r="C38" t="n">
-        <v>1106.443993458702</v>
+        <v>1106.443993458709</v>
       </c>
       <c r="D38" t="n">
-        <v>906.8821572143261</v>
+        <v>906.8821572143311</v>
       </c>
       <c r="E38" t="n">
-        <v>685.3585658488329</v>
+        <v>685.3585658488366</v>
       </c>
       <c r="F38" t="n">
-        <v>444.4695036874034</v>
+        <v>444.4695036874057</v>
       </c>
       <c r="G38" t="n">
-        <v>202.2405627008731</v>
+        <v>202.2405627008748</v>
       </c>
       <c r="H38" t="n">
-        <v>48.95845336911342</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="I38" t="n">
-        <v>48.95845336911342</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="J38" t="n">
-        <v>171.9423552115153</v>
+        <v>171.9423552115157</v>
       </c>
       <c r="K38" t="n">
-        <v>488.4965616626195</v>
+        <v>488.4965616626198</v>
       </c>
       <c r="L38" t="n">
-        <v>931.1800533020546</v>
+        <v>742.9226787006578</v>
       </c>
       <c r="M38" t="n">
-        <v>1429.900392088963</v>
+        <v>1241.643017487566</v>
       </c>
       <c r="N38" t="n">
-        <v>1915.419718959267</v>
+        <v>1727.162344357871</v>
       </c>
       <c r="O38" t="n">
-        <v>2321.638862293991</v>
+        <v>2133.381487692594</v>
       </c>
       <c r="P38" t="n">
-        <v>2447.922668455671</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="Q38" t="n">
-        <v>2447.922668455671</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="R38" t="n">
-        <v>2447.922668455671</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="S38" t="n">
-        <v>2447.922668455673</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="T38" t="n">
-        <v>2399.508895017775</v>
+        <v>2399.508895017791</v>
       </c>
       <c r="U38" t="n">
-        <v>2317.934720622639</v>
+        <v>2317.934720622654</v>
       </c>
       <c r="V38" t="n">
-        <v>2154.217575046981</v>
+        <v>2154.217575046995</v>
       </c>
       <c r="W38" t="n">
-        <v>1964.944773432982</v>
+        <v>1964.944773432994</v>
       </c>
       <c r="X38" t="n">
-        <v>1756.176761482875</v>
+        <v>1756.176761482886</v>
       </c>
       <c r="Y38" t="n">
-        <v>1535.897034587114</v>
+        <v>1535.897034587123</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>913.4851687247182</v>
+        <v>836.385518966998</v>
       </c>
       <c r="C39" t="n">
-        <v>751.7814959656729</v>
+        <v>674.6818462079527</v>
       </c>
       <c r="D39" t="n">
-        <v>612.942858955885</v>
+        <v>535.8432091981648</v>
       </c>
       <c r="E39" t="n">
-        <v>465.9148490127561</v>
+        <v>388.815199255036</v>
       </c>
       <c r="F39" t="n">
-        <v>331.2210509626305</v>
+        <v>254.1214012049104</v>
       </c>
       <c r="G39" t="n">
-        <v>202.8204905086182</v>
+        <v>125.7208407508981</v>
       </c>
       <c r="H39" t="n">
-        <v>106.0498384456333</v>
+        <v>106.0498384456337</v>
       </c>
       <c r="I39" t="n">
-        <v>48.95845336911342</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="J39" t="n">
-        <v>139.5791295860046</v>
+        <v>139.5791295860049</v>
       </c>
       <c r="K39" t="n">
-        <v>420.9709180854678</v>
+        <v>420.9709180854682</v>
       </c>
       <c r="L39" t="n">
-        <v>856.5803799862726</v>
+        <v>856.5803799862731</v>
       </c>
       <c r="M39" t="n">
         <v>1423.052590551987</v>
       </c>
       <c r="N39" t="n">
-        <v>1615.778457783553</v>
+        <v>1423.052590551987</v>
       </c>
       <c r="O39" t="n">
-        <v>2084.450862760001</v>
+        <v>1891.724995528436</v>
       </c>
       <c r="P39" t="n">
-        <v>2447.922668455671</v>
+        <v>2249.122883992185</v>
       </c>
       <c r="Q39" t="n">
-        <v>2447.922668455671</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="R39" t="n">
-        <v>2447.922668455671</v>
+        <v>2408.499416583029</v>
       </c>
       <c r="S39" t="n">
-        <v>2301.214514269498</v>
+        <v>2261.791262396855</v>
       </c>
       <c r="T39" t="n">
-        <v>2113.851236844975</v>
+        <v>2074.427984972333</v>
       </c>
       <c r="U39" t="n">
-        <v>1895.378019411884</v>
+        <v>1855.954767539242</v>
       </c>
       <c r="V39" t="n">
-        <v>1666.982396860218</v>
+        <v>1627.559144987576</v>
       </c>
       <c r="W39" t="n">
-        <v>1425.666528093528</v>
+        <v>1386.243276220885</v>
       </c>
       <c r="X39" t="n">
-        <v>1227.749539971323</v>
+        <v>1188.32628809868</v>
       </c>
       <c r="Y39" t="n">
-        <v>1072.904611505979</v>
+        <v>995.804961748259</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>201.4391083433363</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="C40" t="n">
-        <v>201.4391083433363</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="D40" t="n">
-        <v>201.4391083433363</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="E40" t="n">
-        <v>201.4391083433363</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="F40" t="n">
-        <v>48.95845336911342</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="G40" t="n">
-        <v>48.95845336911342</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="H40" t="n">
-        <v>48.95845336911342</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="I40" t="n">
-        <v>48.95845336911342</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="J40" t="n">
-        <v>48.95845336911342</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="K40" t="n">
-        <v>113.8692614527291</v>
+        <v>113.8692614527294</v>
       </c>
       <c r="L40" t="n">
-        <v>254.5380363947375</v>
+        <v>254.5380363947379</v>
       </c>
       <c r="M40" t="n">
-        <v>414.7709834069166</v>
+        <v>414.7709834069169</v>
       </c>
       <c r="N40" t="n">
-        <v>574.4284065466516</v>
+        <v>574.4284065466518</v>
       </c>
       <c r="O40" t="n">
-        <v>710.979324797454</v>
+        <v>710.9793247974542</v>
       </c>
       <c r="P40" t="n">
-        <v>806.5380492916079</v>
+        <v>806.5380492916081</v>
       </c>
       <c r="Q40" t="n">
-        <v>806.5380492916079</v>
+        <v>806.5380492916081</v>
       </c>
       <c r="R40" t="n">
-        <v>806.5380492916079</v>
+        <v>806.5380492916081</v>
       </c>
       <c r="S40" t="n">
-        <v>770.8817559550963</v>
+        <v>770.8817559550951</v>
       </c>
       <c r="T40" t="n">
-        <v>712.1396470757837</v>
+        <v>538.8775185473824</v>
       </c>
       <c r="U40" t="n">
-        <v>598.2265324649001</v>
+        <v>424.9644039364973</v>
       </c>
       <c r="V40" t="n">
-        <v>510.7533565517228</v>
+        <v>337.4912280233186</v>
       </c>
       <c r="W40" t="n">
-        <v>397.8590835975221</v>
+        <v>224.5969550691165</v>
       </c>
       <c r="X40" t="n">
-        <v>339.868748021298</v>
+        <v>166.606619492891</v>
       </c>
       <c r="Y40" t="n">
-        <v>291.0957177419752</v>
+        <v>59.25169352509489</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1315.115623597501</v>
+        <v>1315.115623597502</v>
       </c>
       <c r="C41" t="n">
         <v>1106.443993458708</v>
       </c>
       <c r="D41" t="n">
-        <v>906.8821572143297</v>
+        <v>906.8821572143299</v>
       </c>
       <c r="E41" t="n">
         <v>685.3585658488357</v>
       </c>
       <c r="F41" t="n">
-        <v>444.4695036874049</v>
+        <v>444.4695036874052</v>
       </c>
       <c r="G41" t="n">
         <v>202.2405627008748</v>
@@ -7409,13 +7409,13 @@
         <v>48.9584533691138</v>
       </c>
       <c r="J41" t="n">
-        <v>48.9584533691138</v>
+        <v>171.9423552115157</v>
       </c>
       <c r="K41" t="n">
-        <v>365.5126598202179</v>
+        <v>300.2391870612227</v>
       </c>
       <c r="L41" t="n">
-        <v>808.196151459653</v>
+        <v>742.9226787006578</v>
       </c>
       <c r="M41" t="n">
         <v>1241.643017487566</v>
@@ -7439,7 +7439,7 @@
         <v>2447.92266845569</v>
       </c>
       <c r="T41" t="n">
-        <v>2399.50889501779</v>
+        <v>2399.508895017791</v>
       </c>
       <c r="U41" t="n">
         <v>2317.934720622653</v>
@@ -7491,19 +7491,19 @@
         <v>139.5791295860049</v>
       </c>
       <c r="K42" t="n">
-        <v>420.9709180854682</v>
+        <v>139.5791295860049</v>
       </c>
       <c r="L42" t="n">
-        <v>619.1183210540364</v>
+        <v>575.1885914868099</v>
       </c>
       <c r="M42" t="n">
-        <v>1185.59053161975</v>
+        <v>1141.660802052524</v>
       </c>
       <c r="N42" t="n">
-        <v>1780.450479015737</v>
+        <v>1416.978673320067</v>
       </c>
       <c r="O42" t="n">
-        <v>2249.122883992185</v>
+        <v>1885.651078296515</v>
       </c>
       <c r="P42" t="n">
         <v>2249.122883992185</v>
@@ -7594,25 +7594,25 @@
         <v>806.5380492916081</v>
       </c>
       <c r="S43" t="n">
-        <v>770.8817559550952</v>
+        <v>770.8817559550951</v>
       </c>
       <c r="T43" t="n">
-        <v>538.8775185473825</v>
+        <v>712.139647075781</v>
       </c>
       <c r="U43" t="n">
-        <v>424.9644039364974</v>
+        <v>424.9644039364971</v>
       </c>
       <c r="V43" t="n">
-        <v>337.4912280233189</v>
+        <v>337.4912280233185</v>
       </c>
       <c r="W43" t="n">
-        <v>224.5969550691167</v>
+        <v>224.5969550691163</v>
       </c>
       <c r="X43" t="n">
-        <v>166.6066194928913</v>
+        <v>166.6066194928908</v>
       </c>
       <c r="Y43" t="n">
-        <v>117.8335892135672</v>
+        <v>117.8335892135667</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1315.115623597501</v>
+        <v>1315.115623597502</v>
       </c>
       <c r="C44" t="n">
-        <v>1106.443993458708</v>
+        <v>1106.443993458709</v>
       </c>
       <c r="D44" t="n">
-        <v>906.8821572143304</v>
+        <v>906.8821572143311</v>
       </c>
       <c r="E44" t="n">
-        <v>685.358565848836</v>
+        <v>685.3585658488366</v>
       </c>
       <c r="F44" t="n">
-        <v>444.469503687405</v>
+        <v>444.4695036874059</v>
       </c>
       <c r="G44" t="n">
         <v>202.2405627008748</v>
@@ -7646,25 +7646,25 @@
         <v>48.9584533691138</v>
       </c>
       <c r="J44" t="n">
-        <v>48.9584533691138</v>
+        <v>171.9423552115156</v>
       </c>
       <c r="K44" t="n">
-        <v>365.5126598202179</v>
+        <v>488.4965616626196</v>
       </c>
       <c r="L44" t="n">
-        <v>808.196151459653</v>
+        <v>583.6194250613241</v>
       </c>
       <c r="M44" t="n">
-        <v>1306.916490246562</v>
+        <v>1082.339763848232</v>
       </c>
       <c r="N44" t="n">
-        <v>1792.435817116866</v>
+        <v>1567.859090718536</v>
       </c>
       <c r="O44" t="n">
-        <v>2198.654960451589</v>
+        <v>1974.07823405326</v>
       </c>
       <c r="P44" t="n">
-        <v>2447.92266845569</v>
+        <v>2288.619414816356</v>
       </c>
       <c r="Q44" t="n">
         <v>2447.92266845569</v>
@@ -7676,22 +7676,22 @@
         <v>2447.92266845569</v>
       </c>
       <c r="T44" t="n">
-        <v>2399.50889501779</v>
+        <v>2399.508895017791</v>
       </c>
       <c r="U44" t="n">
-        <v>2317.934720622653</v>
+        <v>2317.934720622654</v>
       </c>
       <c r="V44" t="n">
-        <v>2154.217575046993</v>
+        <v>2154.217575046994</v>
       </c>
       <c r="W44" t="n">
-        <v>1964.944773432993</v>
+        <v>1964.944773432994</v>
       </c>
       <c r="X44" t="n">
-        <v>1756.176761482885</v>
+        <v>1756.176761482886</v>
       </c>
       <c r="Y44" t="n">
-        <v>1535.897034587122</v>
+        <v>1535.897034587123</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>913.4851687247186</v>
+        <v>836.385518966998</v>
       </c>
       <c r="C45" t="n">
-        <v>751.7814959656733</v>
+        <v>674.6818462079527</v>
       </c>
       <c r="D45" t="n">
-        <v>612.9428589558854</v>
+        <v>535.8432091981648</v>
       </c>
       <c r="E45" t="n">
-        <v>465.9148490127566</v>
+        <v>388.815199255036</v>
       </c>
       <c r="F45" t="n">
-        <v>331.2210509626309</v>
+        <v>254.1214012049104</v>
       </c>
       <c r="G45" t="n">
-        <v>202.8204905086186</v>
+        <v>125.7208407508981</v>
       </c>
       <c r="H45" t="n">
         <v>106.0498384456337</v>
@@ -7725,19 +7725,19 @@
         <v>48.9584533691138</v>
       </c>
       <c r="J45" t="n">
-        <v>133.5052123540846</v>
+        <v>139.5791295860049</v>
       </c>
       <c r="K45" t="n">
-        <v>414.8970008535478</v>
+        <v>139.5791295860049</v>
       </c>
       <c r="L45" t="n">
-        <v>850.5064627543527</v>
+        <v>575.1885914868096</v>
       </c>
       <c r="M45" t="n">
-        <v>1416.978673320067</v>
+        <v>1141.660802052524</v>
       </c>
       <c r="N45" t="n">
-        <v>1416.978673320067</v>
+        <v>1736.52074944851</v>
       </c>
       <c r="O45" t="n">
         <v>1885.651078296515</v>
@@ -7749,28 +7749,28 @@
         <v>2447.92266845569</v>
       </c>
       <c r="R45" t="n">
-        <v>2447.92266845569</v>
+        <v>2408.499416583029</v>
       </c>
       <c r="S45" t="n">
-        <v>2301.214514269517</v>
+        <v>2261.791262396855</v>
       </c>
       <c r="T45" t="n">
-        <v>2151.527634730053</v>
+        <v>2074.427984972333</v>
       </c>
       <c r="U45" t="n">
-        <v>1933.054417296962</v>
+        <v>1855.954767539242</v>
       </c>
       <c r="V45" t="n">
-        <v>1704.658794745296</v>
+        <v>1627.559144987576</v>
       </c>
       <c r="W45" t="n">
-        <v>1463.342925978606</v>
+        <v>1386.243276220885</v>
       </c>
       <c r="X45" t="n">
-        <v>1265.425937856401</v>
+        <v>1188.32628809868</v>
       </c>
       <c r="Y45" t="n">
-        <v>1072.90461150598</v>
+        <v>995.804961748259</v>
       </c>
     </row>
     <row r="46">
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>202.0303465413511</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="C46" t="n">
-        <v>202.0303465413511</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="D46" t="n">
         <v>48.9584533691138</v>
@@ -7810,46 +7810,46 @@
         <v>113.8692614527294</v>
       </c>
       <c r="L46" t="n">
-        <v>254.5380363947379</v>
+        <v>254.5380363947378</v>
       </c>
       <c r="M46" t="n">
-        <v>414.7709834069169</v>
+        <v>414.7709834069167</v>
       </c>
       <c r="N46" t="n">
-        <v>574.4284065466518</v>
+        <v>574.4284065466516</v>
       </c>
       <c r="O46" t="n">
-        <v>710.9793247974542</v>
+        <v>710.9793247974538</v>
       </c>
       <c r="P46" t="n">
-        <v>806.5380492916081</v>
+        <v>806.5380492916078</v>
       </c>
       <c r="Q46" t="n">
-        <v>806.5380492916081</v>
+        <v>806.5380492916078</v>
       </c>
       <c r="R46" t="n">
-        <v>806.5380492916081</v>
+        <v>806.5380492916078</v>
       </c>
       <c r="S46" t="n">
-        <v>692.1096249104619</v>
+        <v>597.6196274266961</v>
       </c>
       <c r="T46" t="n">
-        <v>633.3675160311478</v>
+        <v>538.8775185473821</v>
       </c>
       <c r="U46" t="n">
-        <v>519.4544014202627</v>
+        <v>424.964403936497</v>
       </c>
       <c r="V46" t="n">
-        <v>431.981225507084</v>
+        <v>337.4912280233184</v>
       </c>
       <c r="W46" t="n">
-        <v>319.0869525528819</v>
+        <v>166.0150593806445</v>
       </c>
       <c r="X46" t="n">
-        <v>261.0966169766564</v>
+        <v>108.024723804419</v>
       </c>
       <c r="Y46" t="n">
-        <v>212.3235866973322</v>
+        <v>59.25169352509486</v>
       </c>
     </row>
   </sheetData>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>95.59943624652233</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
-        <v>101.6373126545301</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>470.7430492978073</v>
+        <v>95.80453685555004</v>
       </c>
       <c r="M11" t="n">
-        <v>455.5481880163651</v>
+        <v>80.60967557410794</v>
       </c>
       <c r="N11" t="n">
-        <v>453.0659516825797</v>
+        <v>453.0659516825796</v>
       </c>
       <c r="O11" t="n">
-        <v>84.71786863679766</v>
+        <v>459.6563810790548</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3383206229274</v>
+        <v>230.4576857158992</v>
       </c>
       <c r="Q11" t="n">
-        <v>157.1682276737485</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,28 +8766,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>72.38230935981316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>59.57067831891464</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>417.0214038611936</v>
+        <v>200.2328560230974</v>
       </c>
       <c r="M12" t="n">
-        <v>393.0119124249294</v>
+        <v>408.1609432306772</v>
       </c>
       <c r="N12" t="n">
-        <v>397.2149653555572</v>
+        <v>22.27645291330006</v>
       </c>
       <c r="O12" t="n">
         <v>413.5530578288251</v>
       </c>
       <c r="P12" t="n">
-        <v>46.85836115548407</v>
+        <v>46.85836115548404</v>
       </c>
       <c r="Q12" t="n">
-        <v>72.29261096215421</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8933,10 +8933,10 @@
         <v>351.9017891136796</v>
       </c>
       <c r="M14" t="n">
-        <v>80.60967557410795</v>
+        <v>455.548188016365</v>
       </c>
       <c r="N14" t="n">
-        <v>453.0659516825797</v>
+        <v>78.12743924032249</v>
       </c>
       <c r="O14" t="n">
         <v>459.6563810790548</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>72.38230935981315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9012,19 +9012,19 @@
         <v>417.0214038611936</v>
       </c>
       <c r="M15" t="n">
-        <v>408.1609432306772</v>
+        <v>33.22243078842004</v>
       </c>
       <c r="N15" t="n">
-        <v>381.2342806119108</v>
+        <v>397.2149653555572</v>
       </c>
       <c r="O15" t="n">
-        <v>38.61454538656797</v>
+        <v>38.61454538656795</v>
       </c>
       <c r="P15" t="n">
-        <v>46.85836115548405</v>
+        <v>296.5443623423633</v>
       </c>
       <c r="Q15" t="n">
-        <v>72.29261096215421</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>192.8573422301369</v>
+        <v>95.59943624652232</v>
       </c>
       <c r="K17" t="n">
-        <v>421.3890363425141</v>
+        <v>101.6373126545301</v>
       </c>
       <c r="L17" t="n">
-        <v>95.80453685555008</v>
+        <v>470.7430492978072</v>
       </c>
       <c r="M17" t="n">
-        <v>455.5481880163651</v>
+        <v>80.60967557410794</v>
       </c>
       <c r="N17" t="n">
-        <v>78.12743924032253</v>
+        <v>453.0659516825796</v>
       </c>
       <c r="O17" t="n">
         <v>459.6563810790548</v>
       </c>
       <c r="P17" t="n">
-        <v>418.3383206229274</v>
+        <v>299.4970604387998</v>
       </c>
       <c r="Q17" t="n">
-        <v>115.0971104444071</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9243,7 +9243,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163522</v>
+        <v>327.8241233727056</v>
       </c>
       <c r="L18" t="n">
         <v>417.0214038611936</v>
@@ -9252,16 +9252,16 @@
         <v>408.1609432306772</v>
       </c>
       <c r="N18" t="n">
-        <v>381.2342806119108</v>
+        <v>22.27645291330006</v>
       </c>
       <c r="O18" t="n">
-        <v>38.61454538656798</v>
+        <v>413.5530578288251</v>
       </c>
       <c r="P18" t="n">
-        <v>46.85836115548407</v>
+        <v>46.85836115548404</v>
       </c>
       <c r="Q18" t="n">
-        <v>72.29261096215421</v>
+        <v>72.2926109621542</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9401,25 +9401,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>176.2882534003969</v>
+        <v>101.6373126545301</v>
       </c>
       <c r="L20" t="n">
-        <v>95.80453685555008</v>
+        <v>388.588003049975</v>
       </c>
       <c r="M20" t="n">
-        <v>455.5481880163651</v>
+        <v>455.548188016365</v>
       </c>
       <c r="N20" t="n">
-        <v>453.0659516825797</v>
+        <v>453.0659516825796</v>
       </c>
       <c r="O20" t="n">
-        <v>459.6563810790548</v>
+        <v>84.71786863679762</v>
       </c>
       <c r="P20" t="n">
-        <v>100.6199562157595</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578761</v>
+        <v>115.0971104444071</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,28 +9477,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>72.38230935981316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>59.57067831891463</v>
       </c>
       <c r="L21" t="n">
         <v>417.0214038611936</v>
       </c>
       <c r="M21" t="n">
-        <v>408.1609432306772</v>
+        <v>33.22243078842004</v>
       </c>
       <c r="N21" t="n">
-        <v>97.83180475237182</v>
+        <v>97.51730923846436</v>
       </c>
       <c r="O21" t="n">
         <v>413.5530578288251</v>
       </c>
       <c r="P21" t="n">
-        <v>46.85836115548407</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>72.29261096215421</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>95.59943624652233</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
-        <v>421.3890363425141</v>
+        <v>101.6373126545301</v>
       </c>
       <c r="L23" t="n">
-        <v>95.80453685555008</v>
+        <v>95.80453685555004</v>
       </c>
       <c r="M23" t="n">
-        <v>455.5481880163649</v>
+        <v>455.548188016365</v>
       </c>
       <c r="N23" t="n">
-        <v>453.0659516825795</v>
+        <v>453.0659516825796</v>
       </c>
       <c r="O23" t="n">
-        <v>459.6563810790546</v>
+        <v>459.6563810790547</v>
       </c>
       <c r="P23" t="n">
-        <v>140.6577141642846</v>
+        <v>175.2708969616262</v>
       </c>
       <c r="Q23" t="n">
-        <v>115.0971104444071</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,28 +9714,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>72.38230935981315</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>59.57067831891463</v>
       </c>
       <c r="L24" t="n">
-        <v>417.0214038611934</v>
+        <v>42.08289141893644</v>
       </c>
       <c r="M24" t="n">
-        <v>408.160943230677</v>
+        <v>408.1609432306772</v>
       </c>
       <c r="N24" t="n">
-        <v>381.2342806119103</v>
+        <v>397.2149653555572</v>
       </c>
       <c r="O24" t="n">
-        <v>38.61454538656798</v>
+        <v>413.553057828825</v>
       </c>
       <c r="P24" t="n">
-        <v>46.85836115548407</v>
+        <v>205.8399796975438</v>
       </c>
       <c r="Q24" t="n">
-        <v>72.29261096215421</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,16 +9951,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>72.38230935981316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>107.0232382276754</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>605.4165828749999</v>
+        <v>76.29111330915498</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>72.29261096215421</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,16 +10188,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>72.38230935981316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>107.0232382276754</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>76.29111330915498</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>72.29261096215421</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>72.38230935981315</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10434,10 +10434,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>368.635012986323</v>
       </c>
       <c r="N33" t="n">
-        <v>94.01961708077471</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10446,7 +10446,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>72.2926109621542</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10589,7 +10589,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L35" t="n">
-        <v>542.9595789155856</v>
+        <v>191.8882372582797</v>
       </c>
       <c r="M35" t="n">
         <v>584.3675935406823</v>
@@ -10601,10 +10601,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>228.1793563790729</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>115.0971104444071</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,10 +10662,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>72.38230935981316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>59.57067831891464</v>
+        <v>337.6695381851182</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>592.7192124566541</v>
+        <v>22.27645291330009</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>72.29261096215421</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10826,7 +10826,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
-        <v>542.9595789155856</v>
+        <v>352.8006146717501</v>
       </c>
       <c r="M38" t="n">
         <v>584.3675935406823</v>
@@ -10838,7 +10838,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P38" t="n">
-        <v>228.1793563790729</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
         <v>115.0971104444071</v>
@@ -10911,16 +10911,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>216.9490460764982</v>
+        <v>22.27645291330009</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>414.0015992319183</v>
+        <v>407.8663293006856</v>
       </c>
       <c r="Q39" t="n">
-        <v>72.29261096215421</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11057,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>95.59943624652233</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>421.3890363425141</v>
+        <v>231.2300720986786</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M41" t="n">
-        <v>518.4347927740204</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N41" t="n">
         <v>568.5510017355793</v>
@@ -11139,22 +11139,22 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>59.57067831891464</v>
       </c>
       <c r="L42" t="n">
-        <v>242.2317833063792</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>300.375312779505</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>46.85836115548407</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
         <v>273.1004740566038</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>95.59943624652233</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>542.9595789155856</v>
+        <v>191.8882372582821</v>
       </c>
       <c r="M44" t="n">
         <v>584.3675935406823</v>
@@ -11312,10 +11312,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>352.4055198562653</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>115.0971104444071</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11373,10 +11373,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>157.7830760112988</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>59.57067831891474</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11385,10 +11385,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>22.27645291330009</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>512.0210150597484</v>
+        <v>189.2512411926341</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>95.70160284835835</v>
       </c>
       <c r="C11" t="n">
-        <v>47.64526245428723</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>220.1004714210318</v>
+        <v>220.1004714210319</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>261.0144250789145</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>174.2835417775414</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>70.46388924261854</v>
       </c>
       <c r="U11" t="n">
-        <v>103.2926861902831</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>184.6142276590012</v>
+        <v>184.6142276590013</v>
       </c>
       <c r="W11" t="n">
-        <v>209.9143271369581</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>229.2145853697048</v>
       </c>
       <c r="Y11" t="n">
-        <v>240.6111831659035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241.1078504188221</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>220.1004714210318</v>
+        <v>220.1004714210319</v>
       </c>
       <c r="E14" t="n">
         <v>241.8426089909374</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>261.0144250789145</v>
       </c>
       <c r="G14" t="n">
-        <v>262.3409051157628</v>
+        <v>234.8590099384615</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>174.2835417775414</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.53425353909795</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>70.46388924261851</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>103.2926861902831</v>
+        <v>103.2926861902832</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>73.71007847861605</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>3.510009703324668e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>832888.6649608336</v>
+        <v>832888.6649608338</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>887280.0225606653</v>
+        <v>887280.0225606662</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>887280.0225606653</v>
+        <v>887280.0225606663</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26314,46 @@
         <v>650995.1367812087</v>
       </c>
       <c r="C2" t="n">
-        <v>650995.136781209</v>
+        <v>650995.1367812089</v>
       </c>
       <c r="D2" t="n">
-        <v>650995.1367812088</v>
+        <v>650995.1367812087</v>
       </c>
       <c r="E2" t="n">
-        <v>568893.7784018022</v>
+        <v>568893.7784018019</v>
       </c>
       <c r="F2" t="n">
-        <v>568893.7784018022</v>
+        <v>568893.7784018023</v>
       </c>
       <c r="G2" t="n">
         <v>652480.4514200543</v>
       </c>
       <c r="H2" t="n">
-        <v>652480.4514200543</v>
+        <v>652480.4514200547</v>
       </c>
       <c r="I2" t="n">
-        <v>652480.4514200541</v>
+        <v>652480.4514200544</v>
       </c>
       <c r="J2" t="n">
         <v>652480.4514200545</v>
       </c>
       <c r="K2" t="n">
-        <v>652480.451420055</v>
+        <v>652480.4514200549</v>
       </c>
       <c r="L2" t="n">
+        <v>652480.4514200548</v>
+      </c>
+      <c r="M2" t="n">
+        <v>652480.4514200544</v>
+      </c>
+      <c r="N2" t="n">
+        <v>652480.4514200543</v>
+      </c>
+      <c r="O2" t="n">
         <v>652480.4514200545</v>
       </c>
-      <c r="M2" t="n">
-        <v>652480.4514200551</v>
-      </c>
-      <c r="N2" t="n">
-        <v>652480.4514200554</v>
-      </c>
-      <c r="O2" t="n">
-        <v>652480.4514200544</v>
-      </c>
       <c r="P2" t="n">
-        <v>652480.4514200545</v>
+        <v>652480.4514200547</v>
       </c>
     </row>
     <row r="3">
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136355.5574477964</v>
+        <v>136355.5574477963</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>76159.64004103011</v>
+        <v>76159.64004103019</v>
       </c>
       <c r="M3" t="n">
-        <v>83474.36825920513</v>
+        <v>83474.36825920503</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4735.800136733758</v>
+        <v>4735.800136733656</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26436,28 +26436,28 @@
         <v>359427.9628026185</v>
       </c>
       <c r="I4" t="n">
-        <v>359427.9628026184</v>
+        <v>359427.9628026185</v>
       </c>
       <c r="J4" t="n">
         <v>348294.7670570374</v>
       </c>
       <c r="K4" t="n">
-        <v>348294.7670570374</v>
+        <v>348294.7670570375</v>
       </c>
       <c r="L4" t="n">
         <v>348294.7670570374</v>
       </c>
       <c r="M4" t="n">
-        <v>349934.2306458566</v>
+        <v>349934.2306458565</v>
       </c>
       <c r="N4" t="n">
-        <v>349934.2306458567</v>
+        <v>349934.2306458565</v>
       </c>
       <c r="O4" t="n">
         <v>349934.2306458565</v>
       </c>
       <c r="P4" t="n">
-        <v>349934.2306458565</v>
+        <v>349934.2306458566</v>
       </c>
     </row>
     <row r="5">
@@ -26488,25 +26488,25 @@
         <v>46615.93338432273</v>
       </c>
       <c r="I5" t="n">
-        <v>46615.93338432271</v>
+        <v>46615.93338432272</v>
       </c>
       <c r="J5" t="n">
-        <v>65173.09918276488</v>
+        <v>65173.09918276489</v>
       </c>
       <c r="K5" t="n">
-        <v>65173.0991827649</v>
+        <v>65173.09918276491</v>
       </c>
       <c r="L5" t="n">
-        <v>65173.09918276489</v>
+        <v>65173.09918276491</v>
       </c>
       <c r="M5" t="n">
-        <v>54919.19757587652</v>
+        <v>54919.19757587668</v>
       </c>
       <c r="N5" t="n">
-        <v>54919.19757587652</v>
+        <v>54919.19757587669</v>
       </c>
       <c r="O5" t="n">
-        <v>54919.1975758767</v>
+        <v>54919.19757587669</v>
       </c>
       <c r="P5" t="n">
         <v>54919.19757587669</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>197611.1343245342</v>
+        <v>197606.765752067</v>
       </c>
       <c r="C6" t="n">
-        <v>197611.1343245345</v>
+        <v>197606.7657520672</v>
       </c>
       <c r="D6" t="n">
-        <v>197611.1343245343</v>
+        <v>197606.765752067</v>
       </c>
       <c r="E6" t="n">
-        <v>-125428.1371810386</v>
+        <v>-125673.9803369748</v>
       </c>
       <c r="F6" t="n">
-        <v>226980.8848529484</v>
+        <v>226735.0416970125</v>
       </c>
       <c r="G6" t="n">
         <v>170276.9151920829</v>
       </c>
       <c r="H6" t="n">
-        <v>246436.5552331131</v>
+        <v>246436.5552331135</v>
       </c>
       <c r="I6" t="n">
-        <v>246436.555233113</v>
+        <v>246436.5552331132</v>
       </c>
       <c r="J6" t="n">
         <v>102657.0277324559</v>
       </c>
       <c r="K6" t="n">
-        <v>239012.5851802527</v>
+        <v>239012.5851802525</v>
       </c>
       <c r="L6" t="n">
-        <v>162852.9451392221</v>
+        <v>162852.9451392222</v>
       </c>
       <c r="M6" t="n">
-        <v>164152.6549391168</v>
+        <v>164152.6549391163</v>
       </c>
       <c r="N6" t="n">
-        <v>247627.0231983221</v>
+        <v>247627.0231983211</v>
       </c>
       <c r="O6" t="n">
-        <v>242891.2230615875</v>
+        <v>242891.2230615877</v>
       </c>
       <c r="P6" t="n">
-        <v>247627.0231983213</v>
+        <v>247627.0231983214</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>148.9952537040168</v>
       </c>
       <c r="G2" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="H2" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="I2" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="J2" t="n">
         <v>101.1193002222048</v>
@@ -26713,13 +26713,13 @@
         <v>101.1193002222048</v>
       </c>
       <c r="L2" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="M2" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="N2" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="O2" t="n">
         <v>171.5295072431148</v>
@@ -26744,28 +26744,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150.9384803178345</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="F3" t="n">
         <v>150.9384803178346</v>
       </c>
       <c r="G3" t="n">
-        <v>150.9384803178345</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="H3" t="n">
-        <v>150.9384803178345</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="I3" t="n">
-        <v>150.9384803178345</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="J3" t="n">
-        <v>150.9384803178345</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="K3" t="n">
-        <v>150.9384803178345</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="L3" t="n">
-        <v>150.9384803178345</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="M3" t="n">
         <v>150.9384803178345</v>
@@ -26777,7 +26777,7 @@
         <v>150.9384803178345</v>
       </c>
       <c r="P3" t="n">
-        <v>150.9384803178345</v>
+        <v>150.9384803178343</v>
       </c>
     </row>
     <row r="4">
@@ -26808,22 +26808,22 @@
         <v>374.9385124422571</v>
       </c>
       <c r="I4" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="J4" t="n">
-        <v>877.9875306160453</v>
+        <v>877.9875306160454</v>
       </c>
       <c r="K4" t="n">
-        <v>877.9875306160455</v>
+        <v>877.9875306160458</v>
       </c>
       <c r="L4" t="n">
-        <v>877.9875306160455</v>
+        <v>877.9875306160459</v>
       </c>
       <c r="M4" t="n">
-        <v>611.9806671139178</v>
+        <v>611.9806671139222</v>
       </c>
       <c r="N4" t="n">
-        <v>611.9806671139178</v>
+        <v>611.9806671139226</v>
       </c>
       <c r="O4" t="n">
         <v>611.9806671139226</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.919750170917098</v>
+        <v>5.919750170917069</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95.19955005128764</v>
+        <v>95.19955005128773</v>
       </c>
       <c r="M2" t="n">
-        <v>70.41020702091141</v>
+        <v>70.41020702091001</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.919750170915762</v>
+        <v>5.919750170917069</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150.9384803178345</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>503.0490181737884</v>
+        <v>503.0490181737883</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>108.9316489401294</v>
+        <v>108.9316489401335</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.774847184307873e-12</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.919750170917098</v>
+        <v>5.919750170917069</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.61576569231051</v>
+        <v>51.6157656923105</v>
       </c>
       <c r="S11" t="n">
         <v>148.9952537040168</v>
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="C12" t="n">
-        <v>148.9952537040168</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>127.1165548494722</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>95.80294554235505</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>33.66077604220536</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,22 +28214,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.02901935393511</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>145.2410726443114</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>148.9952537040168</v>
       </c>
-      <c r="U12" t="n">
-        <v>12.15715739851305</v>
-      </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.36025740485484</v>
+        <v>15.36025740485483</v>
       </c>
       <c r="R13" t="n">
         <v>135.7881746594375</v>
@@ -28403,19 +28403,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>136.4692543106853</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
         <v>127.1165548494722</v>
@@ -28424,7 +28424,7 @@
         <v>95.80294554235505</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>39.02901935393511</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>145.2410726443114</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
         <v>148.9952537040168</v>
       </c>
-      <c r="U15" t="n">
+      <c r="Y15" t="n">
         <v>148.9952537040168</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>148.9952537040168</v>
-      </c>
-      <c r="X15" t="n">
-        <v>142.0664936078181</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="C17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="D17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="E17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="F17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="G17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="H17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="I17" t="n">
         <v>147.6958378085047</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>51.61576569231051</v>
+        <v>51.6157656923105</v>
       </c>
       <c r="S17" t="n">
         <v>171.5295072431148</v>
@@ -28618,19 +28618,19 @@
         <v>219.4591429466353</v>
       </c>
       <c r="U17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="V17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="W17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="X17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="Y17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>73.2596880615076</v>
       </c>
       <c r="G18" t="n">
-        <v>127.1165548494722</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>95.80294554235505</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,7 +28691,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>39.05562178019989</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28700,10 +28700,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28719,22 +28719,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.958367000993</v>
       </c>
       <c r="H19" t="n">
         <v>155.3589542808002</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.36025740485484</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>135.7881746594375</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>206.8292376462626</v>
@@ -28776,19 +28776,19 @@
         <v>229.6841950336356</v>
       </c>
       <c r="U19" t="n">
-        <v>244.1948037553046</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>244.1948037553046</v>
+        <v>202.4909151381914</v>
       </c>
       <c r="W19" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="X19" t="n">
-        <v>223.253212470747</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="C20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="D20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="E20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="F20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="G20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="H20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="I20" t="n">
         <v>147.6958378085047</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.61576569231051</v>
+        <v>51.6157656923105</v>
       </c>
       <c r="S20" t="n">
         <v>171.5295072431148</v>
@@ -28855,19 +28855,19 @@
         <v>219.4591429466353</v>
       </c>
       <c r="U20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="V20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="W20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="X20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="Y20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
     </row>
     <row r="21">
@@ -28880,25 +28880,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>31.75854210839894</v>
+        <v>127.1165548494722</v>
       </c>
       <c r="H21" t="n">
         <v>95.80294554235505</v>
       </c>
       <c r="I21" t="n">
-        <v>56.52047122575469</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,19 +28925,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>39.02901935393511</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>145.2410726443114</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>185.4896446502776</v>
       </c>
       <c r="U21" t="n">
-        <v>216.28848525876</v>
+        <v>88.2176143272404</v>
       </c>
       <c r="V21" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28959,16 +28959,16 @@
         <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
-        <v>131.0021919488639</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>57.170986119937</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.36025740485484</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>135.7881746594375</v>
@@ -29010,16 +29010,16 @@
         <v>206.8292376462626</v>
       </c>
       <c r="T22" t="n">
-        <v>229.6841950336356</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="V22" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="W22" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="C23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="D23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="E23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="F23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="G23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="H23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="I23" t="n">
         <v>147.6958378085047</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.61576569231051</v>
+        <v>51.6157656923105</v>
       </c>
       <c r="S23" t="n">
         <v>171.5295072431148</v>
@@ -29092,19 +29092,19 @@
         <v>219.4591429466353</v>
       </c>
       <c r="U23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="V23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="W23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="X23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="Y23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
     </row>
     <row r="24">
@@ -29114,19 +29114,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
         <v>127.1165548494722</v>
@@ -29135,7 +29135,7 @@
         <v>95.80294554235505</v>
       </c>
       <c r="I24" t="n">
-        <v>56.52047122575469</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,19 +29162,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>39.02901935393511</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>145.2410726443114</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>185.4896446502776</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>216.28848525876</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>130.7536535850774</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29183,7 +29183,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>142.6217865859002</v>
       </c>
     </row>
     <row r="25">
@@ -29217,7 +29217,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>40.21324716010344</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.36025740485484</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>135.7881746594375</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>206.8292376462626</v>
+        <v>165.1253490291495</v>
       </c>
       <c r="T25" t="n">
         <v>229.6841950336356</v>
       </c>
       <c r="U25" t="n">
-        <v>115.9357267696614</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29296,7 +29296,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="J26" t="n">
-        <v>101.1193002222048</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>101.1193002222048</v>
@@ -29305,16 +29305,16 @@
         <v>101.1193002222048</v>
       </c>
       <c r="M26" t="n">
+        <v>45.98902442737193</v>
+      </c>
+      <c r="N26" t="n">
         <v>101.1193002222048</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>101.1193002222048</v>
       </c>
       <c r="P26" t="n">
-        <v>45.98902442737125</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="Q26" t="n">
         <v>101.1193002222048</v>
@@ -29457,7 +29457,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="K28" t="n">
-        <v>101.1193002222039</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="L28" t="n">
         <v>101.1193002222048</v>
@@ -29539,25 +29539,25 @@
         <v>101.1193002222048</v>
       </c>
       <c r="L29" t="n">
-        <v>101.1193002222048</v>
+        <v>45.98902442737381</v>
       </c>
       <c r="M29" t="n">
         <v>101.1193002222048</v>
       </c>
       <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>101.1193002222048</v>
-      </c>
-      <c r="O29" t="n">
-        <v>95.49255895726617</v>
       </c>
       <c r="P29" t="n">
         <v>101.1193002222048</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="R29" t="n">
-        <v>51.61576569231051</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="S29" t="n">
         <v>101.1193002222048</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="C32" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="D32" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="E32" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="F32" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="G32" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="H32" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="I32" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="J32" t="n">
-        <v>101.1193002222047</v>
+        <v>45.98902442737437</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="L32" t="n">
-        <v>45.98902442737312</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="N32" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="O32" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="P32" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="R32" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="S32" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="T32" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="U32" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="V32" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="W32" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="X32" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="Y32" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="C34" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="D34" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="E34" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="F34" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="G34" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="H34" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="I34" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="J34" t="n">
-        <v>101.1193002222066</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="K34" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="L34" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="M34" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="N34" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="O34" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="P34" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="Q34" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="R34" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="S34" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="T34" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="U34" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="V34" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="W34" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="X34" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="Y34" t="n">
-        <v>101.1193002222047</v>
+        <v>101.1193002222048</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="C35" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="D35" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="E35" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="F35" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="G35" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="H35" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="I35" t="n">
         <v>147.6958378085047</v>
@@ -30037,22 +30037,22 @@
         <v>171.5295072431148</v>
       </c>
       <c r="T35" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="U35" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="V35" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="W35" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="X35" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="Y35" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
     </row>
     <row r="36">
@@ -30080,7 +30080,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>76.32865326016184</v>
+        <v>76.32865326014463</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>113.533430511519</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="C37" t="n">
         <v>167.9198098429365</v>
@@ -30192,25 +30192,25 @@
         <v>135.7881746594375</v>
       </c>
       <c r="S37" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="T37" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="U37" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="V37" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="W37" t="n">
-        <v>171.5295072431161</v>
+        <v>113.5334305115273</v>
       </c>
       <c r="X37" t="n">
-        <v>171.5295072431161</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>171.5295072431148</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="C38" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="D38" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="E38" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="F38" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="G38" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="H38" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="I38" t="n">
         <v>147.6958378085047</v>
@@ -30271,25 +30271,25 @@
         <v>51.61576569231051</v>
       </c>
       <c r="S38" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="T38" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="U38" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="V38" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="W38" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="X38" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="Y38" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
     </row>
     <row r="39">
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>76.32865326014331</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>39.02901935393511</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>37.29963390622677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>92.95977169288346</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="C40" t="n">
         <v>167.9198098429365</v>
@@ -30390,7 +30390,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
         <v>166.958367000993</v>
@@ -30429,25 +30429,25 @@
         <v>135.7881746594375</v>
       </c>
       <c r="S40" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="T40" t="n">
-        <v>171.5295072431161</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="V40" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="W40" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="X40" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.5295072431161</v>
+        <v>113.5334305115276</v>
       </c>
     </row>
     <row r="41">
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>113.5334305115272</v>
+        <v>113.5334305115277</v>
       </c>
       <c r="C43" t="n">
         <v>167.9198098429365</v>
@@ -30669,10 +30669,10 @@
         <v>171.5295072431148</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="U43" t="n">
-        <v>171.5295072431148</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>171.5295072431148</v>
@@ -30715,7 +30715,7 @@
         <v>171.5295072431148</v>
       </c>
       <c r="I44" t="n">
-        <v>147.6958378085047</v>
+        <v>147.6958378085048</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>51.61576569231051</v>
+        <v>51.61576569231057</v>
       </c>
       <c r="S44" t="n">
         <v>171.5295072431148</v>
@@ -30791,7 +30791,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>76.32865326014333</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30821,13 +30821,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.02901935393511</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>37.29963390620784</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30858,7 +30858,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
@@ -30876,7 +30876,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J46" t="n">
-        <v>40.21324716010344</v>
+        <v>40.21324716010348</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,13 +30897,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.36025740485484</v>
+        <v>15.36025740485488</v>
       </c>
       <c r="R46" t="n">
-        <v>135.7881746594375</v>
+        <v>135.7881746594376</v>
       </c>
       <c r="S46" t="n">
-        <v>93.54509750892787</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>171.5295072431148</v>
@@ -30915,7 +30915,7 @@
         <v>171.5295072431148</v>
       </c>
       <c r="W46" t="n">
-        <v>171.5295072431148</v>
+        <v>113.5334305115277</v>
       </c>
       <c r="X46" t="n">
         <v>171.5295072431148</v>
@@ -31750,22 +31750,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6067878605742087</v>
+        <v>0.606787860574209</v>
       </c>
       <c r="H11" t="n">
-        <v>6.214266177105618</v>
+        <v>6.214266177105619</v>
       </c>
       <c r="I11" t="n">
-        <v>23.39318899478721</v>
+        <v>23.39318899478722</v>
       </c>
       <c r="J11" t="n">
-        <v>51.5003611814103</v>
+        <v>51.50036118141032</v>
       </c>
       <c r="K11" t="n">
-        <v>77.18569131951656</v>
+        <v>77.18569131951659</v>
       </c>
       <c r="L11" t="n">
-        <v>95.75567530756453</v>
+        <v>95.75567530756457</v>
       </c>
       <c r="M11" t="n">
         <v>106.5466389230511</v>
@@ -31777,22 +31777,22 @@
         <v>102.2369281433228</v>
       </c>
       <c r="P11" t="n">
-        <v>87.25685283539701</v>
+        <v>87.25685283539704</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.52626257858313</v>
+        <v>65.52626257858316</v>
       </c>
       <c r="R11" t="n">
-        <v>38.11613794679467</v>
+        <v>38.11613794679469</v>
       </c>
       <c r="S11" t="n">
         <v>13.8271783728348</v>
       </c>
       <c r="T11" t="n">
-        <v>2.6562138596636</v>
+        <v>2.656213859663601</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04854302884593669</v>
+        <v>0.04854302884593671</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.324660127476097</v>
+        <v>0.3246601274760971</v>
       </c>
       <c r="H12" t="n">
-        <v>3.135533336413884</v>
+        <v>3.135533336413885</v>
       </c>
       <c r="I12" t="n">
         <v>11.17799123108492</v>
       </c>
       <c r="J12" t="n">
-        <v>30.67326230685353</v>
+        <v>30.67326230685354</v>
       </c>
       <c r="K12" t="n">
-        <v>52.42549084775203</v>
+        <v>52.42549084775204</v>
       </c>
       <c r="L12" t="n">
-        <v>70.49254215221133</v>
+        <v>70.49254215221134</v>
       </c>
       <c r="M12" t="n">
-        <v>82.26147177321981</v>
+        <v>82.26147177321985</v>
       </c>
       <c r="N12" t="n">
-        <v>84.43868815440823</v>
+        <v>84.43868815440825</v>
       </c>
       <c r="O12" t="n">
-        <v>77.24490322454312</v>
+        <v>77.24490322454315</v>
       </c>
       <c r="P12" t="n">
-        <v>61.99584486865925</v>
+        <v>61.99584486865928</v>
       </c>
       <c r="Q12" t="n">
-        <v>41.44258048273827</v>
+        <v>41.44258048273829</v>
       </c>
       <c r="R12" t="n">
         <v>20.15740686206856</v>
       </c>
       <c r="S12" t="n">
-        <v>6.030419473075744</v>
+        <v>6.030419473075747</v>
       </c>
       <c r="T12" t="n">
         <v>1.308608145397075</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2721841448354393</v>
+        <v>0.2721841448354394</v>
       </c>
       <c r="H13" t="n">
-        <v>2.419964487718726</v>
+        <v>2.419964487718727</v>
       </c>
       <c r="I13" t="n">
-        <v>8.185319555596669</v>
+        <v>8.185319555596672</v>
       </c>
       <c r="J13" t="n">
         <v>19.24341903986556</v>
       </c>
       <c r="K13" t="n">
-        <v>31.62284882724467</v>
+        <v>31.62284882724468</v>
       </c>
       <c r="L13" t="n">
-        <v>40.46635913307978</v>
+        <v>40.46635913307979</v>
       </c>
       <c r="M13" t="n">
-        <v>42.66610190361345</v>
+        <v>42.66610190361347</v>
       </c>
       <c r="N13" t="n">
-        <v>41.6515973637723</v>
+        <v>41.65159736377232</v>
       </c>
       <c r="O13" t="n">
-        <v>38.47199167183102</v>
+        <v>38.47199167183103</v>
       </c>
       <c r="P13" t="n">
-        <v>32.91943511718803</v>
+        <v>32.91943511718804</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.79171052799301</v>
+        <v>22.79171052799303</v>
       </c>
       <c r="R13" t="n">
-        <v>12.23838891232802</v>
+        <v>12.23838891232803</v>
       </c>
       <c r="S13" t="n">
-        <v>4.7434273240867</v>
+        <v>4.743427324086702</v>
       </c>
       <c r="T13" t="n">
-        <v>1.162968618842331</v>
+        <v>1.162968618842332</v>
       </c>
       <c r="U13" t="n">
         <v>0.01484640790011489</v>
@@ -31987,22 +31987,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6067878605742089</v>
+        <v>0.606787860574209</v>
       </c>
       <c r="H14" t="n">
-        <v>6.214266177105618</v>
+        <v>6.214266177105619</v>
       </c>
       <c r="I14" t="n">
-        <v>23.39318899478721</v>
+        <v>23.39318899478722</v>
       </c>
       <c r="J14" t="n">
-        <v>51.50036118141031</v>
+        <v>51.50036118141032</v>
       </c>
       <c r="K14" t="n">
-        <v>77.18569131951658</v>
+        <v>77.18569131951659</v>
       </c>
       <c r="L14" t="n">
-        <v>95.75567530756454</v>
+        <v>95.75567530756457</v>
       </c>
       <c r="M14" t="n">
         <v>106.5466389230511</v>
@@ -32014,13 +32014,13 @@
         <v>102.2369281433228</v>
       </c>
       <c r="P14" t="n">
-        <v>87.25685283539703</v>
+        <v>87.25685283539704</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.52626257858314</v>
+        <v>65.52626257858316</v>
       </c>
       <c r="R14" t="n">
-        <v>38.11613794679468</v>
+        <v>38.11613794679469</v>
       </c>
       <c r="S14" t="n">
         <v>13.8271783728348</v>
@@ -32029,7 +32029,7 @@
         <v>2.656213859663601</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0485430288459367</v>
+        <v>0.04854302884593671</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.324660127476097</v>
+        <v>0.3246601274760971</v>
       </c>
       <c r="H15" t="n">
         <v>3.135533336413885</v>
@@ -32081,19 +32081,19 @@
         <v>52.42549084775204</v>
       </c>
       <c r="L15" t="n">
-        <v>70.49254215221133</v>
+        <v>70.49254215221134</v>
       </c>
       <c r="M15" t="n">
-        <v>82.26147177321984</v>
+        <v>82.26147177321985</v>
       </c>
       <c r="N15" t="n">
-        <v>84.43868815440824</v>
+        <v>84.43868815440825</v>
       </c>
       <c r="O15" t="n">
-        <v>77.24490322454314</v>
+        <v>77.24490322454315</v>
       </c>
       <c r="P15" t="n">
-        <v>61.99584486865927</v>
+        <v>61.99584486865928</v>
       </c>
       <c r="Q15" t="n">
         <v>41.44258048273829</v>
@@ -32102,7 +32102,7 @@
         <v>20.15740686206856</v>
       </c>
       <c r="S15" t="n">
-        <v>6.030419473075745</v>
+        <v>6.030419473075747</v>
       </c>
       <c r="T15" t="n">
         <v>1.308608145397075</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2721841448354393</v>
+        <v>0.2721841448354394</v>
       </c>
       <c r="H16" t="n">
         <v>2.419964487718727</v>
       </c>
       <c r="I16" t="n">
-        <v>8.185319555596671</v>
+        <v>8.185319555596672</v>
       </c>
       <c r="J16" t="n">
         <v>19.24341903986556</v>
@@ -32160,13 +32160,13 @@
         <v>31.62284882724468</v>
       </c>
       <c r="L16" t="n">
-        <v>40.46635913307978</v>
+        <v>40.46635913307979</v>
       </c>
       <c r="M16" t="n">
-        <v>42.66610190361346</v>
+        <v>42.66610190361347</v>
       </c>
       <c r="N16" t="n">
-        <v>41.65159736377231</v>
+        <v>41.65159736377232</v>
       </c>
       <c r="O16" t="n">
         <v>38.47199167183103</v>
@@ -32175,13 +32175,13 @@
         <v>32.91943511718804</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.79171052799302</v>
+        <v>22.79171052799303</v>
       </c>
       <c r="R16" t="n">
         <v>12.23838891232803</v>
       </c>
       <c r="S16" t="n">
-        <v>4.743427324086701</v>
+        <v>4.743427324086702</v>
       </c>
       <c r="T16" t="n">
         <v>1.162968618842332</v>
@@ -32224,22 +32224,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6067878605742087</v>
+        <v>0.606787860574209</v>
       </c>
       <c r="H17" t="n">
-        <v>6.214266177105618</v>
+        <v>6.214266177105619</v>
       </c>
       <c r="I17" t="n">
-        <v>23.39318899478721</v>
+        <v>23.39318899478722</v>
       </c>
       <c r="J17" t="n">
-        <v>51.5003611814103</v>
+        <v>51.50036118141032</v>
       </c>
       <c r="K17" t="n">
-        <v>77.18569131951656</v>
+        <v>77.18569131951659</v>
       </c>
       <c r="L17" t="n">
-        <v>95.75567530756453</v>
+        <v>95.75567530756457</v>
       </c>
       <c r="M17" t="n">
         <v>106.5466389230511</v>
@@ -32251,22 +32251,22 @@
         <v>102.2369281433228</v>
       </c>
       <c r="P17" t="n">
-        <v>87.25685283539701</v>
+        <v>87.25685283539704</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.52626257858313</v>
+        <v>65.52626257858316</v>
       </c>
       <c r="R17" t="n">
-        <v>38.11613794679467</v>
+        <v>38.11613794679469</v>
       </c>
       <c r="S17" t="n">
         <v>13.8271783728348</v>
       </c>
       <c r="T17" t="n">
-        <v>2.6562138596636</v>
+        <v>2.656213859663601</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04854302884593669</v>
+        <v>0.04854302884593671</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32303,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.324660127476097</v>
+        <v>0.3246601274760971</v>
       </c>
       <c r="H18" t="n">
-        <v>3.135533336413884</v>
+        <v>3.135533336413885</v>
       </c>
       <c r="I18" t="n">
         <v>11.17799123108492</v>
       </c>
       <c r="J18" t="n">
-        <v>30.67326230685353</v>
+        <v>30.67326230685354</v>
       </c>
       <c r="K18" t="n">
-        <v>52.42549084775203</v>
+        <v>52.42549084775204</v>
       </c>
       <c r="L18" t="n">
-        <v>70.49254215221133</v>
+        <v>70.49254215221134</v>
       </c>
       <c r="M18" t="n">
-        <v>82.26147177321981</v>
+        <v>82.26147177321985</v>
       </c>
       <c r="N18" t="n">
-        <v>84.43868815440823</v>
+        <v>84.43868815440825</v>
       </c>
       <c r="O18" t="n">
-        <v>77.24490322454312</v>
+        <v>77.24490322454315</v>
       </c>
       <c r="P18" t="n">
-        <v>61.99584486865925</v>
+        <v>61.99584486865928</v>
       </c>
       <c r="Q18" t="n">
-        <v>41.44258048273827</v>
+        <v>41.44258048273829</v>
       </c>
       <c r="R18" t="n">
         <v>20.15740686206856</v>
       </c>
       <c r="S18" t="n">
-        <v>6.030419473075744</v>
+        <v>6.030419473075747</v>
       </c>
       <c r="T18" t="n">
         <v>1.308608145397075</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2721841448354393</v>
+        <v>0.2721841448354394</v>
       </c>
       <c r="H19" t="n">
-        <v>2.419964487718726</v>
+        <v>2.419964487718727</v>
       </c>
       <c r="I19" t="n">
-        <v>8.185319555596669</v>
+        <v>8.185319555596672</v>
       </c>
       <c r="J19" t="n">
         <v>19.24341903986556</v>
       </c>
       <c r="K19" t="n">
-        <v>31.62284882724467</v>
+        <v>31.62284882724468</v>
       </c>
       <c r="L19" t="n">
-        <v>40.46635913307978</v>
+        <v>40.46635913307979</v>
       </c>
       <c r="M19" t="n">
-        <v>42.66610190361345</v>
+        <v>42.66610190361347</v>
       </c>
       <c r="N19" t="n">
-        <v>41.6515973637723</v>
+        <v>41.65159736377232</v>
       </c>
       <c r="O19" t="n">
-        <v>38.47199167183102</v>
+        <v>38.47199167183103</v>
       </c>
       <c r="P19" t="n">
-        <v>32.91943511718803</v>
+        <v>32.91943511718804</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.79171052799301</v>
+        <v>22.79171052799303</v>
       </c>
       <c r="R19" t="n">
-        <v>12.23838891232802</v>
+        <v>12.23838891232803</v>
       </c>
       <c r="S19" t="n">
-        <v>4.7434273240867</v>
+        <v>4.743427324086702</v>
       </c>
       <c r="T19" t="n">
-        <v>1.162968618842331</v>
+        <v>1.162968618842332</v>
       </c>
       <c r="U19" t="n">
         <v>0.01484640790011489</v>
@@ -32461,22 +32461,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6067878605742087</v>
+        <v>0.606787860574209</v>
       </c>
       <c r="H20" t="n">
-        <v>6.214266177105618</v>
+        <v>6.214266177105619</v>
       </c>
       <c r="I20" t="n">
-        <v>23.39318899478721</v>
+        <v>23.39318899478722</v>
       </c>
       <c r="J20" t="n">
-        <v>51.5003611814103</v>
+        <v>51.50036118141032</v>
       </c>
       <c r="K20" t="n">
-        <v>77.18569131951656</v>
+        <v>77.18569131951659</v>
       </c>
       <c r="L20" t="n">
-        <v>95.75567530756453</v>
+        <v>95.75567530756457</v>
       </c>
       <c r="M20" t="n">
         <v>106.5466389230511</v>
@@ -32488,22 +32488,22 @@
         <v>102.2369281433228</v>
       </c>
       <c r="P20" t="n">
-        <v>87.25685283539701</v>
+        <v>87.25685283539704</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.52626257858313</v>
+        <v>65.52626257858316</v>
       </c>
       <c r="R20" t="n">
-        <v>38.11613794679467</v>
+        <v>38.11613794679469</v>
       </c>
       <c r="S20" t="n">
         <v>13.8271783728348</v>
       </c>
       <c r="T20" t="n">
-        <v>2.6562138596636</v>
+        <v>2.656213859663601</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04854302884593669</v>
+        <v>0.04854302884593671</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32540,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.324660127476097</v>
+        <v>0.3246601274760971</v>
       </c>
       <c r="H21" t="n">
-        <v>3.135533336413884</v>
+        <v>3.135533336413885</v>
       </c>
       <c r="I21" t="n">
         <v>11.17799123108492</v>
       </c>
       <c r="J21" t="n">
-        <v>30.67326230685353</v>
+        <v>30.67326230685354</v>
       </c>
       <c r="K21" t="n">
-        <v>52.42549084775203</v>
+        <v>52.42549084775204</v>
       </c>
       <c r="L21" t="n">
-        <v>70.49254215221133</v>
+        <v>70.49254215221134</v>
       </c>
       <c r="M21" t="n">
-        <v>82.26147177321981</v>
+        <v>82.26147177321985</v>
       </c>
       <c r="N21" t="n">
-        <v>84.43868815440823</v>
+        <v>84.43868815440825</v>
       </c>
       <c r="O21" t="n">
-        <v>77.24490322454312</v>
+        <v>77.24490322454315</v>
       </c>
       <c r="P21" t="n">
-        <v>61.99584486865925</v>
+        <v>61.99584486865928</v>
       </c>
       <c r="Q21" t="n">
-        <v>41.44258048273827</v>
+        <v>41.44258048273829</v>
       </c>
       <c r="R21" t="n">
         <v>20.15740686206856</v>
       </c>
       <c r="S21" t="n">
-        <v>6.030419473075744</v>
+        <v>6.030419473075747</v>
       </c>
       <c r="T21" t="n">
         <v>1.308608145397075</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2721841448354393</v>
+        <v>0.2721841448354394</v>
       </c>
       <c r="H22" t="n">
-        <v>2.419964487718726</v>
+        <v>2.419964487718727</v>
       </c>
       <c r="I22" t="n">
-        <v>8.185319555596669</v>
+        <v>8.185319555596672</v>
       </c>
       <c r="J22" t="n">
         <v>19.24341903986556</v>
       </c>
       <c r="K22" t="n">
-        <v>31.62284882724467</v>
+        <v>31.62284882724468</v>
       </c>
       <c r="L22" t="n">
-        <v>40.46635913307978</v>
+        <v>40.46635913307979</v>
       </c>
       <c r="M22" t="n">
-        <v>42.66610190361345</v>
+        <v>42.66610190361347</v>
       </c>
       <c r="N22" t="n">
-        <v>41.6515973637723</v>
+        <v>41.65159736377232</v>
       </c>
       <c r="O22" t="n">
-        <v>38.47199167183102</v>
+        <v>38.47199167183103</v>
       </c>
       <c r="P22" t="n">
-        <v>32.91943511718803</v>
+        <v>32.91943511718804</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.79171052799301</v>
+        <v>22.79171052799303</v>
       </c>
       <c r="R22" t="n">
-        <v>12.23838891232802</v>
+        <v>12.23838891232803</v>
       </c>
       <c r="S22" t="n">
-        <v>4.7434273240867</v>
+        <v>4.743427324086702</v>
       </c>
       <c r="T22" t="n">
-        <v>1.162968618842331</v>
+        <v>1.162968618842332</v>
       </c>
       <c r="U22" t="n">
         <v>0.01484640790011489</v>
@@ -32698,22 +32698,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6067878605742087</v>
+        <v>0.606787860574209</v>
       </c>
       <c r="H23" t="n">
-        <v>6.214266177105618</v>
+        <v>6.214266177105619</v>
       </c>
       <c r="I23" t="n">
-        <v>23.39318899478721</v>
+        <v>23.39318899478722</v>
       </c>
       <c r="J23" t="n">
-        <v>51.5003611814103</v>
+        <v>51.50036118141032</v>
       </c>
       <c r="K23" t="n">
-        <v>77.18569131951656</v>
+        <v>77.18569131951659</v>
       </c>
       <c r="L23" t="n">
-        <v>95.75567530756453</v>
+        <v>95.75567530756457</v>
       </c>
       <c r="M23" t="n">
         <v>106.5466389230511</v>
@@ -32725,22 +32725,22 @@
         <v>102.2369281433228</v>
       </c>
       <c r="P23" t="n">
-        <v>87.25685283539701</v>
+        <v>87.25685283539704</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.52626257858313</v>
+        <v>65.52626257858316</v>
       </c>
       <c r="R23" t="n">
-        <v>38.11613794679467</v>
+        <v>38.11613794679469</v>
       </c>
       <c r="S23" t="n">
         <v>13.8271783728348</v>
       </c>
       <c r="T23" t="n">
-        <v>2.6562138596636</v>
+        <v>2.656213859663601</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04854302884593669</v>
+        <v>0.04854302884593671</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,43 +32777,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.324660127476097</v>
+        <v>0.3246601274760971</v>
       </c>
       <c r="H24" t="n">
-        <v>3.135533336413884</v>
+        <v>3.135533336413885</v>
       </c>
       <c r="I24" t="n">
         <v>11.17799123108492</v>
       </c>
       <c r="J24" t="n">
-        <v>30.67326230685353</v>
+        <v>30.67326230685354</v>
       </c>
       <c r="K24" t="n">
-        <v>52.42549084775203</v>
+        <v>52.42549084775204</v>
       </c>
       <c r="L24" t="n">
-        <v>70.49254215221133</v>
+        <v>70.49254215221134</v>
       </c>
       <c r="M24" t="n">
-        <v>82.26147177321981</v>
+        <v>82.26147177321985</v>
       </c>
       <c r="N24" t="n">
-        <v>84.43868815440823</v>
+        <v>84.43868815440825</v>
       </c>
       <c r="O24" t="n">
-        <v>77.24490322454312</v>
+        <v>77.24490322454315</v>
       </c>
       <c r="P24" t="n">
-        <v>61.99584486865925</v>
+        <v>61.99584486865928</v>
       </c>
       <c r="Q24" t="n">
-        <v>41.44258048273827</v>
+        <v>41.44258048273829</v>
       </c>
       <c r="R24" t="n">
         <v>20.15740686206856</v>
       </c>
       <c r="S24" t="n">
-        <v>6.030419473075744</v>
+        <v>6.030419473075747</v>
       </c>
       <c r="T24" t="n">
         <v>1.308608145397075</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2721841448354393</v>
+        <v>0.2721841448354394</v>
       </c>
       <c r="H25" t="n">
-        <v>2.419964487718726</v>
+        <v>2.419964487718727</v>
       </c>
       <c r="I25" t="n">
-        <v>8.185319555596669</v>
+        <v>8.185319555596672</v>
       </c>
       <c r="J25" t="n">
         <v>19.24341903986556</v>
       </c>
       <c r="K25" t="n">
-        <v>31.62284882724467</v>
+        <v>31.62284882724468</v>
       </c>
       <c r="L25" t="n">
-        <v>40.46635913307978</v>
+        <v>40.46635913307979</v>
       </c>
       <c r="M25" t="n">
-        <v>42.66610190361345</v>
+        <v>42.66610190361347</v>
       </c>
       <c r="N25" t="n">
-        <v>41.6515973637723</v>
+        <v>41.65159736377232</v>
       </c>
       <c r="O25" t="n">
-        <v>38.47199167183102</v>
+        <v>38.47199167183103</v>
       </c>
       <c r="P25" t="n">
-        <v>32.91943511718803</v>
+        <v>32.91943511718804</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.79171052799301</v>
+        <v>22.79171052799303</v>
       </c>
       <c r="R25" t="n">
-        <v>12.23838891232802</v>
+        <v>12.23838891232803</v>
       </c>
       <c r="S25" t="n">
-        <v>4.7434273240867</v>
+        <v>4.743427324086702</v>
       </c>
       <c r="T25" t="n">
-        <v>1.162968618842331</v>
+        <v>1.162968618842332</v>
       </c>
       <c r="U25" t="n">
         <v>0.01484640790011489</v>
@@ -32935,22 +32935,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6067878605742087</v>
+        <v>0.606787860574209</v>
       </c>
       <c r="H26" t="n">
-        <v>6.214266177105618</v>
+        <v>6.214266177105619</v>
       </c>
       <c r="I26" t="n">
-        <v>23.39318899478721</v>
+        <v>23.39318899478722</v>
       </c>
       <c r="J26" t="n">
-        <v>51.5003611814103</v>
+        <v>51.50036118141032</v>
       </c>
       <c r="K26" t="n">
-        <v>77.18569131951656</v>
+        <v>77.18569131951659</v>
       </c>
       <c r="L26" t="n">
-        <v>95.75567530756453</v>
+        <v>95.75567530756457</v>
       </c>
       <c r="M26" t="n">
         <v>106.5466389230511</v>
@@ -32962,22 +32962,22 @@
         <v>102.2369281433228</v>
       </c>
       <c r="P26" t="n">
-        <v>87.25685283539701</v>
+        <v>87.25685283539704</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.52626257858313</v>
+        <v>65.52626257858316</v>
       </c>
       <c r="R26" t="n">
-        <v>38.11613794679467</v>
+        <v>38.11613794679469</v>
       </c>
       <c r="S26" t="n">
         <v>13.8271783728348</v>
       </c>
       <c r="T26" t="n">
-        <v>2.6562138596636</v>
+        <v>2.656213859663601</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04854302884593669</v>
+        <v>0.04854302884593671</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,43 +33014,43 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.324660127476097</v>
+        <v>0.3246601274760971</v>
       </c>
       <c r="H27" t="n">
-        <v>3.135533336413884</v>
+        <v>3.135533336413885</v>
       </c>
       <c r="I27" t="n">
         <v>11.17799123108492</v>
       </c>
       <c r="J27" t="n">
-        <v>30.67326230685353</v>
+        <v>30.67326230685354</v>
       </c>
       <c r="K27" t="n">
-        <v>52.42549084775203</v>
+        <v>52.42549084775204</v>
       </c>
       <c r="L27" t="n">
-        <v>70.49254215221133</v>
+        <v>70.49254215221134</v>
       </c>
       <c r="M27" t="n">
-        <v>82.26147177321981</v>
+        <v>82.26147177321985</v>
       </c>
       <c r="N27" t="n">
-        <v>84.43868815440823</v>
+        <v>84.43868815440825</v>
       </c>
       <c r="O27" t="n">
-        <v>77.24490322454312</v>
+        <v>77.24490322454315</v>
       </c>
       <c r="P27" t="n">
-        <v>61.99584486865925</v>
+        <v>61.99584486865928</v>
       </c>
       <c r="Q27" t="n">
-        <v>41.44258048273827</v>
+        <v>41.44258048273829</v>
       </c>
       <c r="R27" t="n">
         <v>20.15740686206856</v>
       </c>
       <c r="S27" t="n">
-        <v>6.030419473075744</v>
+        <v>6.030419473075747</v>
       </c>
       <c r="T27" t="n">
         <v>1.308608145397075</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2721841448354393</v>
+        <v>0.2721841448354394</v>
       </c>
       <c r="H28" t="n">
-        <v>2.419964487718726</v>
+        <v>2.419964487718727</v>
       </c>
       <c r="I28" t="n">
-        <v>8.185319555596669</v>
+        <v>8.185319555596672</v>
       </c>
       <c r="J28" t="n">
         <v>19.24341903986556</v>
       </c>
       <c r="K28" t="n">
-        <v>31.62284882724467</v>
+        <v>31.62284882724468</v>
       </c>
       <c r="L28" t="n">
-        <v>40.46635913307978</v>
+        <v>40.46635913307979</v>
       </c>
       <c r="M28" t="n">
-        <v>42.66610190361345</v>
+        <v>42.66610190361347</v>
       </c>
       <c r="N28" t="n">
-        <v>41.6515973637723</v>
+        <v>41.65159736377232</v>
       </c>
       <c r="O28" t="n">
-        <v>38.47199167183102</v>
+        <v>38.47199167183103</v>
       </c>
       <c r="P28" t="n">
-        <v>32.91943511718803</v>
+        <v>32.91943511718804</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.79171052799301</v>
+        <v>22.79171052799303</v>
       </c>
       <c r="R28" t="n">
-        <v>12.23838891232802</v>
+        <v>12.23838891232803</v>
       </c>
       <c r="S28" t="n">
-        <v>4.7434273240867</v>
+        <v>4.743427324086702</v>
       </c>
       <c r="T28" t="n">
-        <v>1.162968618842331</v>
+        <v>1.162968618842332</v>
       </c>
       <c r="U28" t="n">
         <v>0.01484640790011489</v>
@@ -33172,22 +33172,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6067878605742087</v>
+        <v>0.606787860574209</v>
       </c>
       <c r="H29" t="n">
-        <v>6.214266177105618</v>
+        <v>6.214266177105619</v>
       </c>
       <c r="I29" t="n">
-        <v>23.39318899478721</v>
+        <v>23.39318899478722</v>
       </c>
       <c r="J29" t="n">
-        <v>51.5003611814103</v>
+        <v>51.50036118141032</v>
       </c>
       <c r="K29" t="n">
-        <v>77.18569131951656</v>
+        <v>77.18569131951659</v>
       </c>
       <c r="L29" t="n">
-        <v>95.75567530756453</v>
+        <v>95.75567530756457</v>
       </c>
       <c r="M29" t="n">
         <v>106.5466389230511</v>
@@ -33199,22 +33199,22 @@
         <v>102.2369281433228</v>
       </c>
       <c r="P29" t="n">
-        <v>87.25685283539701</v>
+        <v>87.25685283539704</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.52626257858313</v>
+        <v>65.52626257858316</v>
       </c>
       <c r="R29" t="n">
-        <v>38.11613794679467</v>
+        <v>38.11613794679469</v>
       </c>
       <c r="S29" t="n">
         <v>13.8271783728348</v>
       </c>
       <c r="T29" t="n">
-        <v>2.6562138596636</v>
+        <v>2.656213859663601</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04854302884593669</v>
+        <v>0.04854302884593671</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,43 +33251,43 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.324660127476097</v>
+        <v>0.3246601274760971</v>
       </c>
       <c r="H30" t="n">
-        <v>3.135533336413884</v>
+        <v>3.135533336413885</v>
       </c>
       <c r="I30" t="n">
         <v>11.17799123108492</v>
       </c>
       <c r="J30" t="n">
-        <v>30.67326230685353</v>
+        <v>30.67326230685354</v>
       </c>
       <c r="K30" t="n">
-        <v>52.42549084775203</v>
+        <v>52.42549084775204</v>
       </c>
       <c r="L30" t="n">
-        <v>70.49254215221133</v>
+        <v>70.49254215221134</v>
       </c>
       <c r="M30" t="n">
-        <v>82.26147177321981</v>
+        <v>82.26147177321985</v>
       </c>
       <c r="N30" t="n">
-        <v>84.43868815440823</v>
+        <v>84.43868815440825</v>
       </c>
       <c r="O30" t="n">
-        <v>77.24490322454312</v>
+        <v>77.24490322454315</v>
       </c>
       <c r="P30" t="n">
-        <v>61.99584486865925</v>
+        <v>61.99584486865928</v>
       </c>
       <c r="Q30" t="n">
-        <v>41.44258048273827</v>
+        <v>41.44258048273829</v>
       </c>
       <c r="R30" t="n">
         <v>20.15740686206856</v>
       </c>
       <c r="S30" t="n">
-        <v>6.030419473075744</v>
+        <v>6.030419473075747</v>
       </c>
       <c r="T30" t="n">
         <v>1.308608145397075</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2721841448354393</v>
+        <v>0.2721841448354394</v>
       </c>
       <c r="H31" t="n">
-        <v>2.419964487718726</v>
+        <v>2.419964487718727</v>
       </c>
       <c r="I31" t="n">
-        <v>8.185319555596669</v>
+        <v>8.185319555596672</v>
       </c>
       <c r="J31" t="n">
         <v>19.24341903986556</v>
       </c>
       <c r="K31" t="n">
-        <v>31.62284882724467</v>
+        <v>31.62284882724468</v>
       </c>
       <c r="L31" t="n">
-        <v>40.46635913307978</v>
+        <v>40.46635913307979</v>
       </c>
       <c r="M31" t="n">
-        <v>42.66610190361345</v>
+        <v>42.66610190361347</v>
       </c>
       <c r="N31" t="n">
-        <v>41.6515973637723</v>
+        <v>41.65159736377232</v>
       </c>
       <c r="O31" t="n">
-        <v>38.47199167183102</v>
+        <v>38.47199167183103</v>
       </c>
       <c r="P31" t="n">
-        <v>32.91943511718803</v>
+        <v>32.91943511718804</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.79171052799301</v>
+        <v>22.79171052799303</v>
       </c>
       <c r="R31" t="n">
-        <v>12.23838891232802</v>
+        <v>12.23838891232803</v>
       </c>
       <c r="S31" t="n">
-        <v>4.7434273240867</v>
+        <v>4.743427324086702</v>
       </c>
       <c r="T31" t="n">
-        <v>1.162968618842331</v>
+        <v>1.162968618842332</v>
       </c>
       <c r="U31" t="n">
         <v>0.01484640790011489</v>
@@ -33409,22 +33409,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6067878605742087</v>
+        <v>0.606787860574209</v>
       </c>
       <c r="H32" t="n">
-        <v>6.214266177105618</v>
+        <v>6.214266177105619</v>
       </c>
       <c r="I32" t="n">
-        <v>23.39318899478721</v>
+        <v>23.39318899478722</v>
       </c>
       <c r="J32" t="n">
-        <v>51.5003611814103</v>
+        <v>51.50036118141032</v>
       </c>
       <c r="K32" t="n">
-        <v>77.18569131951656</v>
+        <v>77.18569131951659</v>
       </c>
       <c r="L32" t="n">
-        <v>95.75567530756453</v>
+        <v>95.75567530756457</v>
       </c>
       <c r="M32" t="n">
         <v>106.5466389230511</v>
@@ -33436,22 +33436,22 @@
         <v>102.2369281433228</v>
       </c>
       <c r="P32" t="n">
-        <v>87.25685283539701</v>
+        <v>87.25685283539704</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.52626257858313</v>
+        <v>65.52626257858316</v>
       </c>
       <c r="R32" t="n">
-        <v>38.11613794679467</v>
+        <v>38.11613794679469</v>
       </c>
       <c r="S32" t="n">
         <v>13.8271783728348</v>
       </c>
       <c r="T32" t="n">
-        <v>2.6562138596636</v>
+        <v>2.656213859663601</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04854302884593669</v>
+        <v>0.04854302884593671</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,43 +33488,43 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.324660127476097</v>
+        <v>0.3246601274760971</v>
       </c>
       <c r="H33" t="n">
-        <v>3.135533336413884</v>
+        <v>3.135533336413885</v>
       </c>
       <c r="I33" t="n">
         <v>11.17799123108492</v>
       </c>
       <c r="J33" t="n">
-        <v>30.67326230685353</v>
+        <v>30.67326230685354</v>
       </c>
       <c r="K33" t="n">
-        <v>52.42549084775203</v>
+        <v>52.42549084775204</v>
       </c>
       <c r="L33" t="n">
-        <v>70.49254215221133</v>
+        <v>70.49254215221134</v>
       </c>
       <c r="M33" t="n">
-        <v>82.26147177321981</v>
+        <v>82.26147177321985</v>
       </c>
       <c r="N33" t="n">
-        <v>84.43868815440823</v>
+        <v>84.43868815440825</v>
       </c>
       <c r="O33" t="n">
-        <v>77.24490322454312</v>
+        <v>77.24490322454315</v>
       </c>
       <c r="P33" t="n">
-        <v>61.99584486865925</v>
+        <v>61.99584486865928</v>
       </c>
       <c r="Q33" t="n">
-        <v>41.44258048273827</v>
+        <v>41.44258048273829</v>
       </c>
       <c r="R33" t="n">
         <v>20.15740686206856</v>
       </c>
       <c r="S33" t="n">
-        <v>6.030419473075744</v>
+        <v>6.030419473075747</v>
       </c>
       <c r="T33" t="n">
         <v>1.308608145397075</v>
@@ -33567,46 +33567,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2721841448354393</v>
+        <v>0.2721841448354394</v>
       </c>
       <c r="H34" t="n">
-        <v>2.419964487718726</v>
+        <v>2.419964487718727</v>
       </c>
       <c r="I34" t="n">
-        <v>8.185319555596669</v>
+        <v>8.185319555596672</v>
       </c>
       <c r="J34" t="n">
         <v>19.24341903986556</v>
       </c>
       <c r="K34" t="n">
-        <v>31.62284882724467</v>
+        <v>31.62284882724468</v>
       </c>
       <c r="L34" t="n">
-        <v>40.46635913307978</v>
+        <v>40.46635913307979</v>
       </c>
       <c r="M34" t="n">
-        <v>42.66610190361345</v>
+        <v>42.66610190361347</v>
       </c>
       <c r="N34" t="n">
-        <v>41.6515973637723</v>
+        <v>41.65159736377232</v>
       </c>
       <c r="O34" t="n">
-        <v>38.47199167183102</v>
+        <v>38.47199167183103</v>
       </c>
       <c r="P34" t="n">
-        <v>32.91943511718803</v>
+        <v>32.91943511718804</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.79171052799301</v>
+        <v>22.79171052799303</v>
       </c>
       <c r="R34" t="n">
-        <v>12.23838891232802</v>
+        <v>12.23838891232803</v>
       </c>
       <c r="S34" t="n">
-        <v>4.7434273240867</v>
+        <v>4.743427324086702</v>
       </c>
       <c r="T34" t="n">
-        <v>1.162968618842331</v>
+        <v>1.162968618842332</v>
       </c>
       <c r="U34" t="n">
         <v>0.01484640790011489</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6067878605742087</v>
+        <v>0.6067878605742077</v>
       </c>
       <c r="H44" t="n">
-        <v>6.214266177105618</v>
+        <v>6.214266177105607</v>
       </c>
       <c r="I44" t="n">
-        <v>23.39318899478721</v>
+        <v>23.39318899478717</v>
       </c>
       <c r="J44" t="n">
-        <v>51.5003611814103</v>
+        <v>51.50036118141021</v>
       </c>
       <c r="K44" t="n">
-        <v>77.18569131951656</v>
+        <v>77.18569131951644</v>
       </c>
       <c r="L44" t="n">
-        <v>95.75567530756453</v>
+        <v>95.75567530756437</v>
       </c>
       <c r="M44" t="n">
-        <v>106.5466389230511</v>
+        <v>106.5466389230509</v>
       </c>
       <c r="N44" t="n">
-        <v>108.2706749319076</v>
+        <v>108.2706749319074</v>
       </c>
       <c r="O44" t="n">
-        <v>102.2369281433228</v>
+        <v>102.2369281433226</v>
       </c>
       <c r="P44" t="n">
-        <v>87.25685283539701</v>
+        <v>87.25685283539686</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.52626257858313</v>
+        <v>65.52626257858302</v>
       </c>
       <c r="R44" t="n">
-        <v>38.11613794679467</v>
+        <v>38.11613794679461</v>
       </c>
       <c r="S44" t="n">
-        <v>13.8271783728348</v>
+        <v>13.82717837283477</v>
       </c>
       <c r="T44" t="n">
-        <v>2.6562138596636</v>
+        <v>2.656213859663596</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04854302884593669</v>
+        <v>0.04854302884593661</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.324660127476097</v>
+        <v>0.3246601274760964</v>
       </c>
       <c r="H45" t="n">
-        <v>3.135533336413884</v>
+        <v>3.135533336413879</v>
       </c>
       <c r="I45" t="n">
-        <v>11.17799123108492</v>
+        <v>11.1779912310849</v>
       </c>
       <c r="J45" t="n">
-        <v>30.67326230685353</v>
+        <v>30.67326230685348</v>
       </c>
       <c r="K45" t="n">
-        <v>52.42549084775203</v>
+        <v>52.42549084775194</v>
       </c>
       <c r="L45" t="n">
-        <v>70.49254215221133</v>
+        <v>70.4925421522112</v>
       </c>
       <c r="M45" t="n">
-        <v>82.26147177321981</v>
+        <v>82.26147177321968</v>
       </c>
       <c r="N45" t="n">
-        <v>84.43868815440823</v>
+        <v>84.43868815440808</v>
       </c>
       <c r="O45" t="n">
-        <v>77.24490322454312</v>
+        <v>77.24490322454299</v>
       </c>
       <c r="P45" t="n">
-        <v>61.99584486865925</v>
+        <v>61.99584486865915</v>
       </c>
       <c r="Q45" t="n">
-        <v>41.44258048273827</v>
+        <v>41.44258048273821</v>
       </c>
       <c r="R45" t="n">
-        <v>20.15740686206856</v>
+        <v>20.15740686206852</v>
       </c>
       <c r="S45" t="n">
-        <v>6.030419473075744</v>
+        <v>6.030419473075734</v>
       </c>
       <c r="T45" t="n">
-        <v>1.308608145397075</v>
+        <v>1.308608145397072</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02135921891290113</v>
+        <v>0.02135921891290109</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2721841448354393</v>
+        <v>0.2721841448354388</v>
       </c>
       <c r="H46" t="n">
-        <v>2.419964487718726</v>
+        <v>2.419964487718722</v>
       </c>
       <c r="I46" t="n">
-        <v>8.185319555596669</v>
+        <v>8.185319555596655</v>
       </c>
       <c r="J46" t="n">
-        <v>19.24341903986556</v>
+        <v>19.24341903986553</v>
       </c>
       <c r="K46" t="n">
-        <v>31.62284882724467</v>
+        <v>31.62284882724462</v>
       </c>
       <c r="L46" t="n">
-        <v>40.46635913307978</v>
+        <v>40.46635913307971</v>
       </c>
       <c r="M46" t="n">
-        <v>42.66610190361345</v>
+        <v>42.66610190361338</v>
       </c>
       <c r="N46" t="n">
-        <v>41.6515973637723</v>
+        <v>41.65159736377223</v>
       </c>
       <c r="O46" t="n">
-        <v>38.47199167183102</v>
+        <v>38.47199167183096</v>
       </c>
       <c r="P46" t="n">
-        <v>32.91943511718803</v>
+        <v>32.91943511718797</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.79171052799301</v>
+        <v>22.79171052799298</v>
       </c>
       <c r="R46" t="n">
-        <v>12.23838891232802</v>
+        <v>12.238388912328</v>
       </c>
       <c r="S46" t="n">
-        <v>4.7434273240867</v>
+        <v>4.743427324086692</v>
       </c>
       <c r="T46" t="n">
-        <v>1.162968618842331</v>
+        <v>1.162968618842329</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01484640790011489</v>
+        <v>0.01484640790011486</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>124.2261634771736</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>319.7517236879841</v>
       </c>
       <c r="L11" t="n">
-        <v>374.9385124422571</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>374.9385124422571</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>374.9385124422571</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="P11" t="n">
-        <v>317.7183644071679</v>
+        <v>129.8377295001397</v>
       </c>
       <c r="Q11" t="n">
-        <v>42.07111722934145</v>
+        <v>160.912377413469</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>91.53603658271834</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>284.2341297974376</v>
       </c>
       <c r="L12" t="n">
+        <v>158.1499646041609</v>
+      </c>
+      <c r="M12" t="n">
         <v>374.9385124422571</v>
       </c>
-      <c r="M12" t="n">
-        <v>359.7894816365093</v>
-      </c>
       <c r="N12" t="n">
-        <v>374.9385124422571</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>374.9385124422571</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>200.8078630944496</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,22 +35568,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>65.56647281173296</v>
+        <v>65.56647281173298</v>
       </c>
       <c r="L13" t="n">
-        <v>142.0896716585944</v>
+        <v>142.0896716585945</v>
       </c>
       <c r="M13" t="n">
-        <v>161.8514616284637</v>
+        <v>161.8514616284643</v>
       </c>
       <c r="N13" t="n">
-        <v>161.2701243835706</v>
+        <v>161.2701243835707</v>
       </c>
       <c r="O13" t="n">
-        <v>137.9302204553559</v>
+        <v>137.930220455356</v>
       </c>
       <c r="P13" t="n">
-        <v>96.52396413550903</v>
+        <v>96.52396413550905</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35653,16 +35653,16 @@
         <v>256.0972522581296</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="N14" t="n">
-        <v>374.9385124422571</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>374.9385124422571</v>
       </c>
       <c r="P14" t="n">
-        <v>317.7183644071679</v>
+        <v>317.718364407168</v>
       </c>
       <c r="Q14" t="n">
         <v>160.912377413469</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>91.53603658271834</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>284.2341297974376</v>
@@ -35732,19 +35732,19 @@
         <v>374.9385124422571</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>374.9385124422571</v>
       </c>
-      <c r="N15" t="n">
-        <v>358.9578276986107</v>
-      </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>249.6860011868793</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>200.8078630944496</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,19 +35808,19 @@
         <v>65.56647281173298</v>
       </c>
       <c r="L16" t="n">
-        <v>142.0896716585944</v>
+        <v>142.0896716585945</v>
       </c>
       <c r="M16" t="n">
         <v>161.8514616284637</v>
       </c>
       <c r="N16" t="n">
-        <v>161.2701243835706</v>
+        <v>161.2701243835707</v>
       </c>
       <c r="O16" t="n">
         <v>137.930220455356</v>
       </c>
       <c r="P16" t="n">
-        <v>96.52396413550903</v>
+        <v>96.52396413550905</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>97.25790598361459</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>319.751723687984</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>374.9385124422571</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>374.9385124422571</v>
       </c>
       <c r="P17" t="n">
-        <v>317.7183644071679</v>
+        <v>198.8771042230403</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>160.912377413469</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>91.53603658271832</v>
+        <v>91.53603658271834</v>
       </c>
       <c r="K18" t="n">
-        <v>284.2341297974376</v>
+        <v>268.253445053791</v>
       </c>
       <c r="L18" t="n">
         <v>374.9385124422571</v>
@@ -35972,10 +35972,10 @@
         <v>374.9385124422571</v>
       </c>
       <c r="N18" t="n">
-        <v>358.9578276986107</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>65.56647281173296</v>
+        <v>65.56647281173298</v>
       </c>
       <c r="L19" t="n">
-        <v>142.0896716585944</v>
+        <v>142.0896716585945</v>
       </c>
       <c r="M19" t="n">
         <v>161.8514616284637</v>
       </c>
       <c r="N19" t="n">
-        <v>161.2701243835706</v>
+        <v>161.2701243835707</v>
       </c>
       <c r="O19" t="n">
-        <v>137.9302204553559</v>
+        <v>137.930220455356</v>
       </c>
       <c r="P19" t="n">
-        <v>96.52396413550903</v>
+        <v>96.52396413550905</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36121,10 +36121,10 @@
         <v>124.2261634771736</v>
       </c>
       <c r="K20" t="n">
-        <v>74.65094074586672</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>292.783466194425</v>
       </c>
       <c r="M20" t="n">
         <v>374.9385124422571</v>
@@ -36133,13 +36133,13 @@
         <v>374.9385124422571</v>
       </c>
       <c r="O20" t="n">
-        <v>374.9385124422571</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>317.718364407168</v>
       </c>
       <c r="Q20" t="n">
-        <v>160.912377413469</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>91.53603658271834</v>
       </c>
       <c r="K21" t="n">
-        <v>284.2341297974376</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>374.9385124422571</v>
       </c>
       <c r="M21" t="n">
-        <v>374.9385124422571</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>75.55535183907173</v>
+        <v>75.2408563251643</v>
       </c>
       <c r="O21" t="n">
         <v>374.9385124422571</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>367.1432380764343</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>200.8078630944496</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>65.56647281173296</v>
+        <v>65.56647281173298</v>
       </c>
       <c r="L22" t="n">
-        <v>142.0896716585944</v>
+        <v>142.0896716585945</v>
       </c>
       <c r="M22" t="n">
         <v>161.8514616284637</v>
       </c>
       <c r="N22" t="n">
-        <v>161.2701243835706</v>
+        <v>161.2701243835707</v>
       </c>
       <c r="O22" t="n">
-        <v>137.9302204553559</v>
+        <v>137.930220455356</v>
       </c>
       <c r="P22" t="n">
-        <v>96.52396413550903</v>
+        <v>96.52396413550905</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.2261634771736</v>
       </c>
       <c r="K23" t="n">
-        <v>319.751723687984</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="N23" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="O23" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="P23" t="n">
-        <v>40.03775794852513</v>
+        <v>74.65094074586681</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>160.912377413469</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>91.53603658271832</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>284.2341297974376</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>374.9385124422569</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="N24" t="n">
-        <v>358.9578276986102</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>158.9816185420597</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>200.8078630944496</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>65.56647281173296</v>
+        <v>65.56647281173298</v>
       </c>
       <c r="L25" t="n">
-        <v>142.0896716585944</v>
+        <v>142.0896716585945</v>
       </c>
       <c r="M25" t="n">
         <v>161.8514616284637</v>
       </c>
       <c r="N25" t="n">
-        <v>161.2701243835706</v>
+        <v>161.2701243835707</v>
       </c>
       <c r="O25" t="n">
-        <v>137.9302204553559</v>
+        <v>137.930220455356</v>
       </c>
       <c r="P25" t="n">
-        <v>96.52396413550903</v>
+        <v>96.52396413550905</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,25 +36592,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>225.3454636993785</v>
+        <v>124.2261634771736</v>
       </c>
       <c r="K26" t="n">
-        <v>420.8710239101888</v>
+        <v>420.8710239101889</v>
       </c>
       <c r="L26" t="n">
         <v>548.2743422822404</v>
       </c>
       <c r="M26" t="n">
-        <v>604.8772181887791</v>
+        <v>549.7469423939463</v>
       </c>
       <c r="N26" t="n">
-        <v>490.4235624952568</v>
+        <v>591.5428627174616</v>
       </c>
       <c r="O26" t="n">
-        <v>511.4416672269761</v>
+        <v>511.4416672269762</v>
       </c>
       <c r="P26" t="n">
-        <v>363.7073888345392</v>
+        <v>418.8376646293727</v>
       </c>
       <c r="Q26" t="n">
         <v>262.0316776356739</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>91.53603658271834</v>
       </c>
       <c r="K27" t="n">
-        <v>47.45255990876077</v>
+        <v>284.2341297974376</v>
       </c>
       <c r="L27" t="n">
         <v>440.0095574755605</v>
       </c>
       <c r="M27" t="n">
-        <v>572.1941520865798</v>
+        <v>43.06868252073495</v>
       </c>
       <c r="N27" t="n">
         <v>600.8686337333195</v>
@@ -36692,7 +36692,7 @@
         <v>367.1432380764343</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>200.8078630944496</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.9060530621014</v>
+        <v>60.90605306210139</v>
       </c>
       <c r="K28" t="n">
-        <v>166.6857730339369</v>
+        <v>166.6857730339378</v>
       </c>
       <c r="L28" t="n">
         <v>243.2089718807993</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>225.3454636993785</v>
+        <v>225.3454636993784</v>
       </c>
       <c r="K29" t="n">
-        <v>420.8710239101888</v>
+        <v>420.8710239101889</v>
       </c>
       <c r="L29" t="n">
-        <v>548.2743422822404</v>
+        <v>493.1440664874093</v>
       </c>
       <c r="M29" t="n">
         <v>604.8772181887791</v>
       </c>
       <c r="N29" t="n">
-        <v>591.5428627174617</v>
+        <v>490.4235624952569</v>
       </c>
       <c r="O29" t="n">
-        <v>505.8149259620374</v>
+        <v>511.4416672269761</v>
       </c>
       <c r="P29" t="n">
-        <v>418.8376646293728</v>
+        <v>418.8376646293727</v>
       </c>
       <c r="Q29" t="n">
-        <v>160.912377413469</v>
+        <v>262.0316776356738</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>49.5035345298943</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>91.53603658271834</v>
       </c>
       <c r="K30" t="n">
-        <v>47.45255990876075</v>
+        <v>284.2341297974376</v>
       </c>
       <c r="L30" t="n">
         <v>440.0095574755605</v>
       </c>
       <c r="M30" t="n">
-        <v>572.1941520865798</v>
+        <v>43.06868252073495</v>
       </c>
       <c r="N30" t="n">
         <v>600.8686337333195</v>
@@ -36929,7 +36929,7 @@
         <v>367.1432380764343</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>200.8078630944496</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.9060530621014</v>
+        <v>60.90605306210136</v>
       </c>
       <c r="K31" t="n">
         <v>166.6857730339378</v>
@@ -37005,10 +37005,10 @@
         <v>239.0495206775608</v>
       </c>
       <c r="P31" t="n">
-        <v>197.6432643577139</v>
+        <v>197.6432643577138</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.75904281735001</v>
+        <v>85.75904281734998</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>225.3454636993783</v>
+        <v>170.215187904548</v>
       </c>
       <c r="K32" t="n">
-        <v>319.751723687984</v>
+        <v>420.8710239101888</v>
       </c>
       <c r="L32" t="n">
-        <v>493.1440664874086</v>
+        <v>447.1550420600355</v>
       </c>
       <c r="M32" t="n">
-        <v>604.877218188779</v>
+        <v>604.8772181887791</v>
       </c>
       <c r="N32" t="n">
-        <v>591.5428627174615</v>
+        <v>591.5428627174616</v>
       </c>
       <c r="O32" t="n">
-        <v>511.441667226976</v>
+        <v>511.4416672269761</v>
       </c>
       <c r="P32" t="n">
         <v>418.8376646293727</v>
@@ -37090,7 +37090,7 @@
         <v>262.0316776356738</v>
       </c>
       <c r="R32" t="n">
-        <v>49.50353452989422</v>
+        <v>49.50353452989427</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>91.53603658271832</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>284.2341297974376</v>
@@ -37154,10 +37154,10 @@
         <v>440.0095574755605</v>
       </c>
       <c r="M33" t="n">
-        <v>572.1941520865798</v>
+        <v>335.412582197903</v>
       </c>
       <c r="N33" t="n">
-        <v>71.74316416747462</v>
+        <v>600.8686337333195</v>
       </c>
       <c r="O33" t="n">
         <v>473.4064696731804</v>
@@ -37166,7 +37166,7 @@
         <v>367.1432380764343</v>
       </c>
       <c r="Q33" t="n">
-        <v>200.8078630944496</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.90605306210312</v>
+        <v>60.90605306210134</v>
       </c>
       <c r="K34" t="n">
         <v>166.6857730339377</v>
       </c>
       <c r="L34" t="n">
-        <v>243.2089718807991</v>
+        <v>243.2089718807992</v>
       </c>
       <c r="M34" t="n">
-        <v>262.9707618506684</v>
+        <v>262.9707618506685</v>
       </c>
       <c r="N34" t="n">
         <v>262.3894246057754</v>
@@ -37242,10 +37242,10 @@
         <v>239.0495206775607</v>
       </c>
       <c r="P34" t="n">
-        <v>197.6432643577137</v>
+        <v>197.6432643577138</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.75904281734989</v>
+        <v>85.75904281734995</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>319.751723687984</v>
       </c>
       <c r="L35" t="n">
-        <v>447.1550420600355</v>
+        <v>96.08370040272959</v>
       </c>
       <c r="M35" t="n">
         <v>503.7579179665743</v>
@@ -37321,10 +37321,10 @@
         <v>410.3223670047713</v>
       </c>
       <c r="P35" t="n">
-        <v>127.5594001633135</v>
+        <v>317.7183644071679</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>160.912377413469</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>91.53603658271832</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>278.0988598662036</v>
       </c>
       <c r="L36" t="n">
         <v>440.0095574755605</v>
@@ -37394,7 +37394,7 @@
         <v>572.1941520865798</v>
       </c>
       <c r="N36" t="n">
-        <v>570.442759543354</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>473.4064696731804</v>
@@ -37403,7 +37403,7 @@
         <v>367.1432380764343</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>200.8078630944496</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>319.751723687984</v>
       </c>
       <c r="L38" t="n">
-        <v>447.1550420600355</v>
+        <v>256.9960778162</v>
       </c>
       <c r="M38" t="n">
         <v>503.7579179665743</v>
@@ -37558,7 +37558,7 @@
         <v>410.3223670047713</v>
       </c>
       <c r="P38" t="n">
-        <v>127.5594001633135</v>
+        <v>317.7183644071679</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37567,7 +37567,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37631,16 +37631,16 @@
         <v>572.1941520865798</v>
       </c>
       <c r="N39" t="n">
-        <v>194.6725931631981</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>473.4064696731804</v>
       </c>
       <c r="P39" t="n">
-        <v>367.1432380764343</v>
+        <v>361.0079681452015</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>200.8078630944496</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>124.2261634771736</v>
       </c>
       <c r="K41" t="n">
-        <v>319.751723687984</v>
+        <v>129.5927594441485</v>
       </c>
       <c r="L41" t="n">
         <v>447.1550420600355</v>
       </c>
       <c r="M41" t="n">
-        <v>437.8251171999124</v>
+        <v>503.7579179665743</v>
       </c>
       <c r="N41" t="n">
         <v>490.4235624952568</v>
@@ -37859,22 +37859,22 @@
         <v>91.53603658271832</v>
       </c>
       <c r="K42" t="n">
-        <v>284.2341297974376</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>200.1488918874427</v>
+        <v>440.0095574755605</v>
       </c>
       <c r="M42" t="n">
         <v>572.1941520865798</v>
       </c>
       <c r="N42" t="n">
-        <v>600.8686337333195</v>
+        <v>278.0988598662049</v>
       </c>
       <c r="O42" t="n">
         <v>473.4064696731804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>367.1432380764343</v>
       </c>
       <c r="Q42" t="n">
         <v>200.8078630944496</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.2261634771735</v>
       </c>
       <c r="K44" t="n">
-        <v>319.751723687984</v>
+        <v>319.7517236879839</v>
       </c>
       <c r="L44" t="n">
-        <v>447.1550420600355</v>
+        <v>96.08370040273184</v>
       </c>
       <c r="M44" t="n">
-        <v>503.7579179665743</v>
+        <v>503.7579179665741</v>
       </c>
       <c r="N44" t="n">
-        <v>490.4235624952568</v>
+        <v>490.4235624952566</v>
       </c>
       <c r="O44" t="n">
-        <v>410.3223670047713</v>
+        <v>410.3223670047711</v>
       </c>
       <c r="P44" t="n">
-        <v>251.7855636405058</v>
+        <v>317.7183644071678</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>160.9123774134689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>85.40076665148567</v>
+        <v>91.53603658271828</v>
       </c>
       <c r="K45" t="n">
-        <v>284.2341297974376</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>440.0095574755605</v>
+        <v>440.0095574755603</v>
       </c>
       <c r="M45" t="n">
-        <v>572.1941520865798</v>
+        <v>572.1941520865797</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>600.8686337333193</v>
       </c>
       <c r="O45" t="n">
-        <v>473.4064696731804</v>
+        <v>150.636695806066</v>
       </c>
       <c r="P45" t="n">
-        <v>367.1432380764343</v>
+        <v>367.1432380764342</v>
       </c>
       <c r="Q45" t="n">
-        <v>200.8078630944496</v>
+        <v>200.8078630944495</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>65.56647281173296</v>
+        <v>65.56647281173292</v>
       </c>
       <c r="L46" t="n">
-        <v>142.0896716585944</v>
+        <v>142.0896716585943</v>
       </c>
       <c r="M46" t="n">
-        <v>161.8514616284637</v>
+        <v>161.8514616284636</v>
       </c>
       <c r="N46" t="n">
         <v>161.2701243835706</v>
@@ -38190,7 +38190,7 @@
         <v>137.9302204553559</v>
       </c>
       <c r="P46" t="n">
-        <v>96.52396413550903</v>
+        <v>96.52396413550898</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
